--- a/data/nzd0480/nzd0480.xlsx
+++ b/data/nzd0480/nzd0480.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D569"/>
+  <dimension ref="A1:D577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10585,6 +10585,146 @@
       <c r="D569" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr"/>
+      <c r="C570" t="n">
+        <v>334.7018181818182</v>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>342.68</v>
+      </c>
+      <c r="C571" t="n">
+        <v>344.0318181818182</v>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>348.93</v>
+      </c>
+      <c r="C572" t="n">
+        <v>343.5063636363636</v>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:33+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>329.08</v>
+      </c>
+      <c r="C573" t="n">
+        <v>331.3418181818182</v>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>351.97</v>
+      </c>
+      <c r="C574" t="n">
+        <v>346.8872727272728</v>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>335.22</v>
+      </c>
+      <c r="C575" t="n">
+        <v>348.9081818181818</v>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:34+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr"/>
+      <c r="C576" t="n">
+        <v>329.3345454545454</v>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>339.07</v>
+      </c>
+      <c r="C577" t="n">
+        <v>355.9290909090909</v>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10599,7 +10739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B705"/>
+  <dimension ref="A1:B713"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17657,6 +17797,86 @@
       </c>
       <c r="B705" t="n">
         <v>-0.85</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -17825,28 +18045,28 @@
         <v>0.0407</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1555689829456641</v>
+        <v>-0.1504091053779562</v>
       </c>
       <c r="J2" t="n">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="K2" t="n">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0117275634757199</v>
+        <v>0.01110390254083116</v>
       </c>
       <c r="M2" t="n">
-        <v>7.349671232228072</v>
+        <v>7.343565499333671</v>
       </c>
       <c r="N2" t="n">
-        <v>90.12446204763573</v>
+        <v>89.86467693642435</v>
       </c>
       <c r="O2" t="n">
-        <v>9.493390440071225</v>
+        <v>9.4796981458496</v>
       </c>
       <c r="P2" t="n">
-        <v>342.7478141845722</v>
+        <v>342.6889475800936</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -17902,28 +18122,28 @@
         <v>0.0608</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07736021116528984</v>
+        <v>-0.08211150925794249</v>
       </c>
       <c r="J3" t="n">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="K3" t="n">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003486105461002587</v>
+        <v>0.003974069868536989</v>
       </c>
       <c r="M3" t="n">
-        <v>6.364133987932475</v>
+        <v>6.372258181856038</v>
       </c>
       <c r="N3" t="n">
-        <v>75.45515681696338</v>
+        <v>75.48501751315995</v>
       </c>
       <c r="O3" t="n">
-        <v>8.686492779998344</v>
+        <v>8.68821141047799</v>
       </c>
       <c r="P3" t="n">
-        <v>345.4378675341912</v>
+        <v>345.4917144675464</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -17960,7 +18180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D569"/>
+  <dimension ref="A1:D577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30298,6 +30518,174 @@
         </is>
       </c>
     </row>
+    <row r="570">
+      <c r="A570" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr"/>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>-45.25838572843721,170.86255980371567</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>-45.25780823215859,170.86293505970247</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>-45.25841323481426,170.8626721152143</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>-45.257826658002635,170.86301029449768</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>-45.25841168569059,170.86266578996083</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:33+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>-45.257768137353466,170.8627713489619</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>-45.258375822577065,170.86251935715836</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>-45.25783562031556,170.86304688872028</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>-45.25842165314296,170.86270648826775</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>-45.257786239007295,170.86284525951675</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>-45.258427611094376,170.86273081533483</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:34+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr"/>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>-45.25836990478377,170.86249519428696</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>-45.25779758936885,170.8628916041077</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>-45.258448309776675,170.86281533086785</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0480/nzd0480.xlsx
+++ b/data/nzd0480/nzd0480.xlsx
@@ -17890,7 +17890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17981,35 +17981,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -18068,27 +18073,28 @@
       <c r="P2" t="n">
         <v>342.6889475800936</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.8588101031654 -45.256797890628505, 170.86942572770266 -45.25939764481598)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.8588101031654</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.2567978906285</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.8694257277027</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.25939764481598</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.864117915434</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.25809776772224</v>
       </c>
     </row>
@@ -18145,27 +18151,28 @@
       <c r="P3" t="n">
         <v>345.4917144675464</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.85853084649003 -45.25739890048481, 170.86914653678983 -45.25999866502269)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.85853084649</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.25739890048481</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.8691465367898</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.25999866502269</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.8638386916399</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.25869878275375</v>
       </c>
     </row>

--- a/data/nzd0480/nzd0480.xlsx
+++ b/data/nzd0480/nzd0480.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D577"/>
+  <dimension ref="A1:D582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10723,6 +10723,96 @@
         <v>355.9290909090909</v>
       </c>
       <c r="D577" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:14+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>355.44</v>
+      </c>
+      <c r="C578" t="n">
+        <v>349.5736363636364</v>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>335.98</v>
+      </c>
+      <c r="C579" t="n">
+        <v>335.6</v>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:58+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>343.72</v>
+      </c>
+      <c r="C580" t="n">
+        <v>357.3163636363636</v>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:13+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>329.26</v>
+      </c>
+      <c r="C581" t="n">
+        <v>334.9954545454545</v>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:05+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>342.73</v>
+      </c>
+      <c r="C582" t="n">
+        <v>348.6572727272728</v>
+      </c>
+      <c r="D582" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10739,7 +10829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B713"/>
+  <dimension ref="A1:B718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17877,6 +17967,56 @@
       </c>
       <c r="B713" t="n">
         <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
@@ -18050,28 +18190,28 @@
         <v>0.0407</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1504091053779562</v>
+        <v>-0.145727159271558</v>
       </c>
       <c r="J2" t="n">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="K2" t="n">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01110390254083116</v>
+        <v>0.0105209141411563</v>
       </c>
       <c r="M2" t="n">
-        <v>7.343565499333671</v>
+        <v>7.34541110866597</v>
       </c>
       <c r="N2" t="n">
-        <v>89.86467693642435</v>
+        <v>89.80006855916716</v>
       </c>
       <c r="O2" t="n">
-        <v>9.4796981458496</v>
+        <v>9.476289809791972</v>
       </c>
       <c r="P2" t="n">
-        <v>342.6889475800936</v>
+        <v>342.635105825223</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18128,28 +18268,28 @@
         <v>0.0608</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08211150925794249</v>
+        <v>-0.07874482583014018</v>
       </c>
       <c r="J3" t="n">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="K3" t="n">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003974069868536989</v>
+        <v>0.003684497357128835</v>
       </c>
       <c r="M3" t="n">
-        <v>6.372258181856038</v>
+        <v>6.391588028719996</v>
       </c>
       <c r="N3" t="n">
-        <v>75.48501751315995</v>
+        <v>75.50879541476742</v>
       </c>
       <c r="O3" t="n">
-        <v>8.68821141047799</v>
+        <v>8.689579702998726</v>
       </c>
       <c r="P3" t="n">
-        <v>345.4917144675464</v>
+        <v>345.4529227570863</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18187,7 +18327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D577"/>
+  <dimension ref="A1:D582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30693,6 +30833,116 @@
         </is>
       </c>
     </row>
+    <row r="578">
+      <c r="A578" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:14+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>-45.25784585030997,170.86308865911388</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>-45.258429572955805,170.8627388258682</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>-45.25778847959962,170.86285440805787</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>-45.2583883764299,170.86257061573073</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:58+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>-45.257811298222414,170.8629475787689</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>-45.25845239965533,170.86283203043558</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:13+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>-45.25776866802151,170.86277351572016</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>-45.258386594127245,170.86256333841277</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:05+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>-45.25780837956553,170.86293566158062</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>-45.258426871375995,170.8627277949699</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0480/nzd0480.xlsx
+++ b/data/nzd0480/nzd0480.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D582"/>
+  <dimension ref="A1:D587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10815,6 +10815,96 @@
       <c r="D582" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>345.62</v>
+      </c>
+      <c r="C583" t="n">
+        <v>352.3336363636364</v>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:19:47+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>335.34</v>
+      </c>
+      <c r="C584" t="n">
+        <v>349.8990909090909</v>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:13:46+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>330.01</v>
+      </c>
+      <c r="C585" t="n">
+        <v>344.9654545454546</v>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:19:54+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>339.65</v>
+      </c>
+      <c r="C586" t="n">
+        <v>349.11</v>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>345.5</v>
+      </c>
+      <c r="C587" t="n">
+        <v>351.4281818181818</v>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10829,7 +10919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B718"/>
+  <dimension ref="A1:B724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18017,6 +18107,66 @@
       </c>
       <c r="B718" t="n">
         <v>0.59</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -18190,28 +18340,28 @@
         <v>0.0407</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.145727159271558</v>
+        <v>-0.1451206688266758</v>
       </c>
       <c r="J2" t="n">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="K2" t="n">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0105209141411563</v>
+        <v>0.01057139427773301</v>
       </c>
       <c r="M2" t="n">
-        <v>7.34541110866597</v>
+        <v>7.327271058801027</v>
       </c>
       <c r="N2" t="n">
-        <v>89.80006855916716</v>
+        <v>89.32323254425026</v>
       </c>
       <c r="O2" t="n">
-        <v>9.476289809791972</v>
+        <v>9.451096896352839</v>
       </c>
       <c r="P2" t="n">
-        <v>342.635105825223</v>
+        <v>342.6280636136426</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18268,28 +18418,28 @@
         <v>0.0608</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07874482583014018</v>
+        <v>-0.06769664115694084</v>
       </c>
       <c r="J3" t="n">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="K3" t="n">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003684497357128835</v>
+        <v>0.002757977871476469</v>
       </c>
       <c r="M3" t="n">
-        <v>6.391588028719996</v>
+        <v>6.394959450451315</v>
       </c>
       <c r="N3" t="n">
-        <v>75.50879541476742</v>
+        <v>75.21917333038192</v>
       </c>
       <c r="O3" t="n">
-        <v>8.689579702998726</v>
+        <v>8.672898784742154</v>
       </c>
       <c r="P3" t="n">
-        <v>345.4529227570863</v>
+        <v>345.3249347291509</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18327,7 +18477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D582"/>
+  <dimension ref="A1:D587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30943,6 +31093,116 @@
         </is>
       </c>
     </row>
+    <row r="583">
+      <c r="A583" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>-45.2578168996817,170.86297045014388</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>-45.2584377098506,170.8627720498897</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:19:47+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>-45.25778659278508,170.86284670402318</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>-45.2584305324452,170.86274274358826</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:13:46+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>-45.25777087913792,170.86278254387994</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>-45.2584159873221,170.8626833540307</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:19:54+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>-45.25779929929184,170.86289858589186</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>-45.258428206085206,170.86273324475883</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>-45.257816545905456,170.86296900563585</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>-45.25843504043557,170.86276115030844</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0480/nzd0480.xlsx
+++ b/data/nzd0480/nzd0480.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0480/nzd0480.xlsx
+++ b/data/nzd0480/nzd0480.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D587"/>
+  <dimension ref="A1:D589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10903,6 +10903,42 @@
         <v>351.4281818181818</v>
       </c>
       <c r="D587" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>331.21</v>
+      </c>
+      <c r="C588" t="n">
+        <v>339.8081818181818</v>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>344.3</v>
+      </c>
+      <c r="C589" t="n">
+        <v>350.1145454545455</v>
+      </c>
+      <c r="D589" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -10919,7 +10955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B724"/>
+  <dimension ref="A1:B726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18167,6 +18203,26 @@
       </c>
       <c r="B724" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>-0.58</v>
       </c>
     </row>
   </sheetData>
@@ -18340,28 +18396,28 @@
         <v>0.0407</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1451206688266758</v>
+        <v>-0.1459277993264926</v>
       </c>
       <c r="J2" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="K2" t="n">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01057139427773301</v>
+        <v>0.01074002011194364</v>
       </c>
       <c r="M2" t="n">
-        <v>7.327271058801027</v>
+        <v>7.324509066446073</v>
       </c>
       <c r="N2" t="n">
-        <v>89.32323254425026</v>
+        <v>89.16293888924679</v>
       </c>
       <c r="O2" t="n">
-        <v>9.451096896352839</v>
+        <v>9.442612927005257</v>
       </c>
       <c r="P2" t="n">
-        <v>342.6280636136426</v>
+        <v>342.6374382436182</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18418,28 +18474,28 @@
         <v>0.0608</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06769664115694084</v>
+        <v>-0.0666969042122203</v>
       </c>
       <c r="J3" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="K3" t="n">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002757977871476469</v>
+        <v>0.002691665929773213</v>
       </c>
       <c r="M3" t="n">
-        <v>6.394959450451315</v>
+        <v>6.391191973659241</v>
       </c>
       <c r="N3" t="n">
-        <v>75.21917333038192</v>
+        <v>75.05304142105352</v>
       </c>
       <c r="O3" t="n">
-        <v>8.672898784742154</v>
+        <v>8.663315844470494</v>
       </c>
       <c r="P3" t="n">
-        <v>345.3249347291509</v>
+        <v>345.3132953999366</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18477,7 +18533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D587"/>
+  <dimension ref="A1:D589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31203,6 +31259,50 @@
         </is>
       </c>
     </row>
+    <row r="588">
+      <c r="A588" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>-45.25777441692273,170.86279698893716</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>-45.25840078285191,170.86262127244268</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>-45.25781300814204,170.86295456055657</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>-45.258431167637845,170.86274533716278</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0480/nzd0480.xlsx
+++ b/data/nzd0480/nzd0480.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D589"/>
+  <dimension ref="A1:D594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10941,6 +10941,96 @@
       <c r="D589" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>331.94</v>
+      </c>
+      <c r="C590" t="n">
+        <v>342.3836363636364</v>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:08+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>332.32</v>
+      </c>
+      <c r="C591" t="n">
+        <v>340.2209090909091</v>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>334.14</v>
+      </c>
+      <c r="C592" t="n">
+        <v>348.4281818181818</v>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:13+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>321.78</v>
+      </c>
+      <c r="C593" t="n">
+        <v>339.9718181818182</v>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:15+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>340.18</v>
+      </c>
+      <c r="C594" t="n">
+        <v>355.3809090909091</v>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10955,7 +11045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B726"/>
+  <dimension ref="A1:B733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18223,6 +18313,76 @@
       </c>
       <c r="B726" t="n">
         <v>-0.58</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B728" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B729" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>-0.49</v>
       </c>
     </row>
   </sheetData>
@@ -18396,28 +18556,28 @@
         <v>0.0407</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1459277993264926</v>
+        <v>-0.1579077462866028</v>
       </c>
       <c r="J2" t="n">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="K2" t="n">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01074002011194364</v>
+        <v>0.01265941577540131</v>
       </c>
       <c r="M2" t="n">
-        <v>7.324509066446073</v>
+        <v>7.324345239734567</v>
       </c>
       <c r="N2" t="n">
-        <v>89.16293888924679</v>
+        <v>89.08401451743634</v>
       </c>
       <c r="O2" t="n">
-        <v>9.442612927005257</v>
+        <v>9.438432842237971</v>
       </c>
       <c r="P2" t="n">
-        <v>342.6374382436182</v>
+        <v>342.7773826609227</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18474,28 +18634,28 @@
         <v>0.0608</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0666969042122203</v>
+        <v>-0.06368962192746649</v>
       </c>
       <c r="J3" t="n">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="K3" t="n">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002691665929773213</v>
+        <v>0.002484969077181987</v>
       </c>
       <c r="M3" t="n">
-        <v>6.391191973659241</v>
+        <v>6.380620879419463</v>
       </c>
       <c r="N3" t="n">
-        <v>75.05304142105352</v>
+        <v>74.72345864063703</v>
       </c>
       <c r="O3" t="n">
-        <v>8.663315844470494</v>
+        <v>8.644273170176717</v>
       </c>
       <c r="P3" t="n">
-        <v>345.3132953999366</v>
+        <v>345.2781312302737</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18533,7 +18693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D589"/>
+  <dimension ref="A1:D594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31303,6 +31463,116 @@
         </is>
       </c>
     </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>-45.257776569074295,170.86280577634787</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>-45.258408375710644,170.8626522749307</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:08+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>-45.25777768937209,170.8628103506167</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>-45.258401999639574,170.8626262407194</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>-45.257783055006456,170.8628322589596</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>-45.25842619598088,170.86272503724553</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:13+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>-45.25774661578197,170.86268347491264</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>-45.258401265278756,170.86262324224398</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:15+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>-45.257800861807304,170.86290496579846</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>-45.258446693657504,170.86280873202233</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0480/nzd0480.xlsx
+++ b/data/nzd0480/nzd0480.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D594"/>
+  <dimension ref="A1:D598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11029,6 +11029,76 @@
         <v>355.3809090909091</v>
       </c>
       <c r="D594" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>339.46</v>
+      </c>
+      <c r="C595" t="n">
+        <v>347.0863636363636</v>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:24+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>333.42</v>
+      </c>
+      <c r="C596" t="n">
+        <v>345.6418181818182</v>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:26+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>334.24</v>
+      </c>
+      <c r="C597" t="n">
+        <v>338.1163636363636</v>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr"/>
+      <c r="C598" t="n">
+        <v>361.4427272727273</v>
+      </c>
+      <c r="D598" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11045,7 +11115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B733"/>
+  <dimension ref="A1:B737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18383,6 +18453,46 @@
       </c>
       <c r="B733" t="n">
         <v>-0.49</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B736" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B737" t="n">
+        <v>-0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -18556,28 +18666,28 @@
         <v>0.0407</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1579077462866028</v>
+        <v>-0.1610424471318473</v>
       </c>
       <c r="J2" t="n">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="K2" t="n">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01265941577540131</v>
+        <v>0.0132763618070848</v>
       </c>
       <c r="M2" t="n">
-        <v>7.324345239734567</v>
+        <v>7.30426606955713</v>
       </c>
       <c r="N2" t="n">
-        <v>89.08401451743634</v>
+        <v>88.69991105176852</v>
       </c>
       <c r="O2" t="n">
-        <v>9.438432842237971</v>
+        <v>9.418063020163357</v>
       </c>
       <c r="P2" t="n">
-        <v>342.7773826609227</v>
+        <v>342.8141793288222</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18634,28 +18744,28 @@
         <v>0.0608</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06368962192746649</v>
+        <v>-0.05743625520069365</v>
       </c>
       <c r="J3" t="n">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="K3" t="n">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002484969077181987</v>
+        <v>0.002031335696747405</v>
       </c>
       <c r="M3" t="n">
-        <v>6.380620879419463</v>
+        <v>6.390305841778975</v>
       </c>
       <c r="N3" t="n">
-        <v>74.72345864063703</v>
+        <v>74.83438839097256</v>
       </c>
       <c r="O3" t="n">
-        <v>8.644273170176717</v>
+        <v>8.65068716293524</v>
       </c>
       <c r="P3" t="n">
-        <v>345.2781312302737</v>
+        <v>345.204792453082</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18693,7 +18803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D594"/>
+  <dimension ref="A1:D598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31573,6 +31683,90 @@
         </is>
       </c>
     </row>
+    <row r="595">
+      <c r="A595" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>-45.2577987391447,170.86289629875563</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>-45.25842224009387,170.86270888486115</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:24+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>-45.2577809323384,170.86282359192234</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>-45.258417981348515,170.86269149588085</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:26+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>-45.257783349821395,170.86283346271483</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>-45.25839579509233,170.86260090688776</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr"/>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>-45.25846456475206,170.8628817023623</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0480/nzd0480.xlsx
+++ b/data/nzd0480/nzd0480.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D598"/>
+  <dimension ref="A1:D605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11099,6 +11099,132 @@
         <v>361.4427272727273</v>
       </c>
       <c r="D598" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>339.51</v>
+      </c>
+      <c r="C599" t="n">
+        <v>352.9181818181818</v>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>333.05</v>
+      </c>
+      <c r="C600" t="n">
+        <v>319.2681818181818</v>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:23+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>337.99</v>
+      </c>
+      <c r="C601" t="n">
+        <v>339.0236363636364</v>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:20:36+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>319.92</v>
+      </c>
+      <c r="C602" t="n">
+        <v>324.9627272727272</v>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>338.05</v>
+      </c>
+      <c r="C603" t="n">
+        <v>340.61</v>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>345.88</v>
+      </c>
+      <c r="C604" t="n">
+        <v>342.0290909090909</v>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:40+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>337.15</v>
+      </c>
+      <c r="C605" t="n">
+        <v>345.9</v>
+      </c>
+      <c r="D605" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11115,7 +11241,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B737"/>
+  <dimension ref="A1:B744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18493,6 +18619,76 @@
       </c>
       <c r="B737" t="n">
         <v>-0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B738" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B739" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B740" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B741" t="n">
+        <v>-0.92</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B742" t="n">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B743" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B744" t="n">
+        <v>-0.33</v>
       </c>
     </row>
   </sheetData>
@@ -18666,28 +18862,28 @@
         <v>0.0407</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1610424471318473</v>
+        <v>-0.1674679875935829</v>
       </c>
       <c r="J2" t="n">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="K2" t="n">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0132763618070848</v>
+        <v>0.0145413793536191</v>
       </c>
       <c r="M2" t="n">
-        <v>7.30426606955713</v>
+        <v>7.276349917025334</v>
       </c>
       <c r="N2" t="n">
-        <v>88.69991105176852</v>
+        <v>88.37965142000503</v>
       </c>
       <c r="O2" t="n">
-        <v>9.418063020163357</v>
+        <v>9.401045230186112</v>
       </c>
       <c r="P2" t="n">
-        <v>342.8141793288222</v>
+        <v>342.8898231855721</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18744,28 +18940,28 @@
         <v>0.0608</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.05743625520069365</v>
+        <v>-0.0715136953176764</v>
       </c>
       <c r="J3" t="n">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="K3" t="n">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002031335696747405</v>
+        <v>0.003139345096023205</v>
       </c>
       <c r="M3" t="n">
-        <v>6.390305841778975</v>
+        <v>6.41417729540181</v>
       </c>
       <c r="N3" t="n">
-        <v>74.83438839097256</v>
+        <v>75.76820288242843</v>
       </c>
       <c r="O3" t="n">
-        <v>8.65068716293524</v>
+        <v>8.704493258221781</v>
       </c>
       <c r="P3" t="n">
-        <v>345.204792453082</v>
+        <v>345.3702431926776</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18803,7 +18999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D598"/>
+  <dimension ref="A1:D605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31767,6 +31963,160 @@
         </is>
       </c>
     </row>
+    <row r="599">
+      <c r="A599" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>-45.257798886551846,170.86289690063356</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>-45.258439433177216,170.8627790864673</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>-45.257779841522634,170.86281913802847</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>-45.25834022729613,170.86237401887817</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:23+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>-45.25779440537318,170.86287860354517</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>-45.258398469882714,170.86261182834016</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:20:36+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>-45.25774113219285,170.86266108509736</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>-45.258357015876875,170.86244256783357</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>-45.25779458226187,170.86287932579862</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>-45.25840314674315,170.86263092446947</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>-45.25781766619683,170.86297357991134</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>-45.25840733045348,170.86264800702682</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:40+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>-45.25779192893111,170.8628684919976</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>-45.25841874250898,170.86269460379154</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0480/nzd0480.xlsx
+++ b/data/nzd0480/nzd0480.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D605"/>
+  <dimension ref="A1:D606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11225,6 +11225,24 @@
         <v>345.9</v>
       </c>
       <c r="D605" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:45+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>333.61</v>
+      </c>
+      <c r="C606" t="n">
+        <v>338.0672727272727</v>
+      </c>
+      <c r="D606" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11241,7 +11259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B744"/>
+  <dimension ref="A1:B745"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18689,6 +18707,16 @@
       </c>
       <c r="B744" t="n">
         <v>-0.33</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B745" t="n">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -18999,7 +19027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D605"/>
+  <dimension ref="A1:D606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32117,6 +32145,28 @@
         </is>
       </c>
     </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:45+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>-45.25778149248698,170.86282587905714</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>-45.258395650364164,170.8626003159475</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0480/nzd0480.xlsx
+++ b/data/nzd0480/nzd0480.xlsx
@@ -18890,28 +18890,28 @@
         <v>0.0407</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1674679875935829</v>
+        <v>-0.1691541940462794</v>
       </c>
       <c r="J2" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K2" t="n">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0145413793536191</v>
+        <v>0.01487134684780245</v>
       </c>
       <c r="M2" t="n">
-        <v>7.276349917025334</v>
+        <v>7.272180616848145</v>
       </c>
       <c r="N2" t="n">
-        <v>88.37965142000503</v>
+        <v>88.26853863460313</v>
       </c>
       <c r="O2" t="n">
-        <v>9.401045230186112</v>
+        <v>9.395133774172837</v>
       </c>
       <c r="P2" t="n">
-        <v>342.8898231855721</v>
+        <v>342.9097643634345</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18968,28 +18968,28 @@
         <v>0.0608</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0715136953176764</v>
+        <v>-0.07337805201832064</v>
       </c>
       <c r="J3" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K3" t="n">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003139345096023205</v>
+        <v>0.00331296062473263</v>
       </c>
       <c r="M3" t="n">
-        <v>6.41417729540181</v>
+        <v>6.411415142231773</v>
       </c>
       <c r="N3" t="n">
-        <v>75.76820288242843</v>
+        <v>75.68823836127764</v>
       </c>
       <c r="O3" t="n">
-        <v>8.704493258221781</v>
+        <v>8.699898755806164</v>
       </c>
       <c r="P3" t="n">
-        <v>345.3702431926776</v>
+        <v>345.3922507585049</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">

--- a/data/nzd0480/nzd0480.xlsx
+++ b/data/nzd0480/nzd0480.xlsx
@@ -468,7 +468,7 @@
         <v>341.01</v>
       </c>
       <c r="C2" t="n">
-        <v>348.7245454545454</v>
+        <v>348.72</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -486,7 +486,7 @@
         <v>338.68</v>
       </c>
       <c r="C3" t="n">
-        <v>336.4572727272728</v>
+        <v>336.46</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -504,7 +504,7 @@
         <v>360.7</v>
       </c>
       <c r="C4" t="n">
-        <v>353.4527272727273</v>
+        <v>353.45</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
         <v>356.86</v>
       </c>
       <c r="C5" t="n">
-        <v>352.9172727272727</v>
+        <v>352.92</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
         <v>341.64</v>
       </c>
       <c r="C7" t="n">
-        <v>347.3090909090909</v>
+        <v>347.31</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -576,7 +576,7 @@
         <v>321.68</v>
       </c>
       <c r="C8" t="n">
-        <v>336.9618181818182</v>
+        <v>336.96</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         <v>339.76</v>
       </c>
       <c r="C9" t="n">
-        <v>351.1572727272728</v>
+        <v>351.16</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         <v>349.88</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9145454545454</v>
+        <v>351.91</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -648,7 +648,7 @@
         <v>332.09</v>
       </c>
       <c r="C12" t="n">
-        <v>337.6745454545455</v>
+        <v>337.67</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>350.04</v>
       </c>
       <c r="C13" t="n">
-        <v>345.4845454545454</v>
+        <v>345.48</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>354.12</v>
       </c>
       <c r="C14" t="n">
-        <v>348.4654545454546</v>
+        <v>348.47</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>366.49</v>
       </c>
       <c r="C15" t="n">
-        <v>358.0145454545454</v>
+        <v>358.01</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         <v>348.58</v>
       </c>
       <c r="C16" t="n">
-        <v>346.5609090909091</v>
+        <v>346.56</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
         <v>335.77</v>
       </c>
       <c r="C17" t="n">
-        <v>339.7136363636364</v>
+        <v>339.71</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>340.45</v>
       </c>
       <c r="C18" t="n">
-        <v>346.4872727272727</v>
+        <v>346.49</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>352.92</v>
       </c>
       <c r="C19" t="n">
-        <v>348.5918181818182</v>
+        <v>348.59</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>330.68</v>
       </c>
       <c r="C20" t="n">
-        <v>339.7818181818182</v>
+        <v>339.78</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>338.36</v>
       </c>
       <c r="C21" t="n">
-        <v>348.9981818181818</v>
+        <v>349</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>352.41</v>
       </c>
       <c r="C22" t="n">
-        <v>351.8081818181818</v>
+        <v>351.81</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>342.62</v>
       </c>
       <c r="C23" t="n">
-        <v>347.9409090909091</v>
+        <v>347.94</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>343.43</v>
       </c>
       <c r="C24" t="n">
-        <v>356.3409090909091</v>
+        <v>356.34</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>333.75</v>
       </c>
       <c r="C25" t="n">
-        <v>339.2281818181818</v>
+        <v>339.23</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>330.9</v>
       </c>
       <c r="C26" t="n">
-        <v>340.0745454545454</v>
+        <v>340.07</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>337.5</v>
       </c>
       <c r="C27" t="n">
-        <v>347.7327272727272</v>
+        <v>347.73</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>337.58</v>
       </c>
       <c r="C28" t="n">
-        <v>345.6190909090909</v>
+        <v>345.62</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>340.82</v>
       </c>
       <c r="C30" t="n">
-        <v>328.5136363636364</v>
+        <v>328.51</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>341.32</v>
       </c>
       <c r="C31" t="n">
-        <v>342.9463636363636</v>
+        <v>342.95</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>355.16</v>
       </c>
       <c r="C32" t="n">
-        <v>357.1381818181818</v>
+        <v>357.14</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>343.75</v>
       </c>
       <c r="C33" t="n">
-        <v>353.2745454545454</v>
+        <v>353.27</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>337.31</v>
       </c>
       <c r="C34" t="n">
-        <v>340.2309090909091</v>
+        <v>340.23</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
         <v>340.15</v>
       </c>
       <c r="C35" t="n">
-        <v>342.3772727272727</v>
+        <v>342.38</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         <v>337.52</v>
       </c>
       <c r="C36" t="n">
-        <v>329.6336363636364</v>
+        <v>329.63</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>350.54</v>
       </c>
       <c r="C37" t="n">
-        <v>344.8954545454546</v>
+        <v>344.9</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>341.84</v>
       </c>
       <c r="C38" t="n">
-        <v>349.9354545454545</v>
+        <v>349.94</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         <v>328.91</v>
       </c>
       <c r="C39" t="n">
-        <v>335.0027272727273</v>
+        <v>335</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>342.14</v>
       </c>
       <c r="C40" t="n">
-        <v>350.550909090909</v>
+        <v>350.55</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>352.05</v>
       </c>
       <c r="C41" t="n">
-        <v>359.5781818181818</v>
+        <v>359.58</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>334.72</v>
       </c>
       <c r="C43" t="n">
-        <v>348.6718181818182</v>
+        <v>348.67</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>330.37</v>
       </c>
       <c r="C44" t="n">
-        <v>339.5036363636364</v>
+        <v>339.5</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>362.93</v>
       </c>
       <c r="C45" t="n">
-        <v>355.4190909090909</v>
+        <v>355.42</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>341.32</v>
       </c>
       <c r="C46" t="n">
-        <v>342.9690909090909</v>
+        <v>342.97</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>346.48</v>
       </c>
       <c r="C47" t="n">
-        <v>349.7636363636364</v>
+        <v>349.76</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>336.8336363636364</v>
+        <v>336.83</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>357.53</v>
       </c>
       <c r="C51" t="n">
-        <v>349.4763636363636</v>
+        <v>349.48</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>333.21</v>
       </c>
       <c r="C52" t="n">
-        <v>335.8736363636364</v>
+        <v>335.87</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>340.05</v>
       </c>
       <c r="C53" t="n">
-        <v>342.1127272727272</v>
+        <v>342.11</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>342.21</v>
       </c>
       <c r="C54" t="n">
-        <v>345.3690909090909</v>
+        <v>345.37</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>334.28</v>
       </c>
       <c r="C56" t="n">
-        <v>349.449090909091</v>
+        <v>349.45</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>345.96</v>
       </c>
       <c r="C57" t="n">
-        <v>359.6727272727272</v>
+        <v>359.67</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>342.58</v>
       </c>
       <c r="C58" t="n">
-        <v>352.8627272727272</v>
+        <v>352.86</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>342.29</v>
       </c>
       <c r="C59" t="n">
-        <v>356.3627272727272</v>
+        <v>356.36</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>351.66</v>
       </c>
       <c r="C60" t="n">
-        <v>352.0218181818182</v>
+        <v>352.02</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>348.76</v>
       </c>
       <c r="C61" t="n">
-        <v>349.4336363636364</v>
+        <v>349.43</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>330.54</v>
       </c>
       <c r="C62" t="n">
-        <v>335.2709090909091</v>
+        <v>335.27</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>332.04</v>
       </c>
       <c r="C64" t="n">
-        <v>334.4827272727272</v>
+        <v>334.48</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>327.45</v>
       </c>
       <c r="C65" t="n">
-        <v>345.5272727272728</v>
+        <v>345.53</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>354.82</v>
       </c>
       <c r="C66" t="n">
-        <v>348.6618181818182</v>
+        <v>348.66</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>340.61</v>
       </c>
       <c r="C67" t="n">
-        <v>346.5581818181818</v>
+        <v>346.56</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>333.59</v>
       </c>
       <c r="C70" t="n">
-        <v>337.0527272727272</v>
+        <v>337.05</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>338.72</v>
       </c>
       <c r="C71" t="n">
-        <v>347.4063636363636</v>
+        <v>347.41</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>344.13</v>
       </c>
       <c r="C72" t="n">
-        <v>351.1827272727273</v>
+        <v>351.18</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>361.36</v>
       </c>
       <c r="C73" t="n">
-        <v>349.2572727272727</v>
+        <v>349.26</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>337.47</v>
       </c>
       <c r="C74" t="n">
-        <v>341.1236363636364</v>
+        <v>341.12</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>348.79</v>
       </c>
       <c r="C75" t="n">
-        <v>346.0772727272728</v>
+        <v>346.08</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>350.07</v>
       </c>
       <c r="C76" t="n">
-        <v>353.6845454545455</v>
+        <v>353.68</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>326.38</v>
       </c>
       <c r="C77" t="n">
-        <v>336.0818181818182</v>
+        <v>336.08</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>334.43</v>
       </c>
       <c r="C78" t="n">
-        <v>337.0372727272728</v>
+        <v>337.04</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>355.1</v>
       </c>
       <c r="C79" t="n">
-        <v>353.8481818181818</v>
+        <v>353.85</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>345.84</v>
       </c>
       <c r="C80" t="n">
-        <v>344.430909090909</v>
+        <v>344.43</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>349.18</v>
       </c>
       <c r="C81" t="n">
-        <v>344.2318181818182</v>
+        <v>344.23</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>349.01</v>
       </c>
       <c r="C82" t="n">
-        <v>348.5936363636364</v>
+        <v>348.59</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>339.27</v>
       </c>
       <c r="C83" t="n">
-        <v>347.0445454545454</v>
+        <v>347.04</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>360.88</v>
       </c>
       <c r="C84" t="n">
-        <v>364.8854545454545</v>
+        <v>364.89</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>346.46</v>
       </c>
       <c r="C87" t="n">
-        <v>344.6090909090909</v>
+        <v>344.61</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>337.15</v>
       </c>
       <c r="C88" t="n">
-        <v>340.7763636363636</v>
+        <v>340.78</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>349.81</v>
       </c>
       <c r="C89" t="n">
-        <v>349.7518181818182</v>
+        <v>349.75</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>351.5</v>
       </c>
       <c r="C90" t="n">
-        <v>347.8690909090909</v>
+        <v>347.87</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>339.14</v>
       </c>
       <c r="C91" t="n">
-        <v>347.7518181818182</v>
+        <v>347.75</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>348.82</v>
       </c>
       <c r="C92" t="n">
-        <v>345.3363636363636</v>
+        <v>345.34</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>347.16</v>
       </c>
       <c r="C93" t="n">
-        <v>343.2627272727273</v>
+        <v>343.26</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>339.33</v>
       </c>
       <c r="C94" t="n">
-        <v>346.4518181818182</v>
+        <v>346.45</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>335.6409090909091</v>
+        <v>335.64</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>342.75</v>
       </c>
       <c r="C96" t="n">
-        <v>342.7372727272727</v>
+        <v>342.74</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>350.68</v>
       </c>
       <c r="C98" t="n">
-        <v>350.6527272727272</v>
+        <v>350.65</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>321.1</v>
       </c>
       <c r="C99" t="n">
-        <v>329.5618181818182</v>
+        <v>329.56</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>344.79</v>
       </c>
       <c r="C100" t="n">
-        <v>348.5472727272727</v>
+        <v>348.55</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>349.35</v>
       </c>
       <c r="C101" t="n">
-        <v>348.9054545454546</v>
+        <v>348.91</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>330.25</v>
       </c>
       <c r="C102" t="n">
-        <v>340.8036363636364</v>
+        <v>340.8</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>343.1</v>
       </c>
       <c r="C103" t="n">
-        <v>343.9145454545454</v>
+        <v>343.91</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>352.31</v>
       </c>
       <c r="C104" t="n">
-        <v>350.5636363636364</v>
+        <v>350.56</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>342.38</v>
       </c>
       <c r="C105" t="n">
-        <v>347.9754545454546</v>
+        <v>347.98</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>336.41</v>
       </c>
       <c r="C106" t="n">
-        <v>334.7127272727272</v>
+        <v>334.71</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>350.8</v>
       </c>
       <c r="C107" t="n">
-        <v>346.5009090909091</v>
+        <v>346.5</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>344.37</v>
       </c>
       <c r="C110" t="n">
-        <v>344.4054545454546</v>
+        <v>344.41</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>334.44</v>
       </c>
       <c r="C113" t="n">
-        <v>346.9936363636364</v>
+        <v>346.99</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>328.96</v>
       </c>
       <c r="C114" t="n">
-        <v>333.6163636363636</v>
+        <v>333.62</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
-        <v>356.4436363636364</v>
+        <v>356.44</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>348.56</v>
       </c>
       <c r="C116" t="n">
-        <v>351.6463636363636</v>
+        <v>351.65</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>357</v>
       </c>
       <c r="C117" t="n">
-        <v>348.4572727272728</v>
+        <v>348.46</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>353.43</v>
       </c>
       <c r="C119" t="n">
-        <v>347.0854545454546</v>
+        <v>347.09</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>337.91</v>
       </c>
       <c r="C120" t="n">
-        <v>348.1881818181818</v>
+        <v>348.19</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>351.13</v>
       </c>
       <c r="C121" t="n">
-        <v>346.7727272727273</v>
+        <v>346.77</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>330.37</v>
       </c>
       <c r="C122" t="n">
-        <v>338.2136363636364</v>
+        <v>338.21</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>377.7136363636364</v>
+        <v>377.71</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>329.03</v>
       </c>
       <c r="C124" t="n">
-        <v>331.9745454545454</v>
+        <v>331.97</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>330.67</v>
       </c>
       <c r="C126" t="n">
-        <v>333.9045454545454</v>
+        <v>333.9</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>354.48</v>
       </c>
       <c r="C127" t="n">
-        <v>349.3018181818182</v>
+        <v>349.3</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>334.44</v>
       </c>
       <c r="C128" t="n">
-        <v>342.3181818181818</v>
+        <v>342.32</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>328.86</v>
       </c>
       <c r="C129" t="n">
-        <v>329.5845454545454</v>
+        <v>329.58</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>348.77</v>
       </c>
       <c r="C130" t="n">
-        <v>346.7690909090909</v>
+        <v>346.77</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="n">
-        <v>341.7681818181818</v>
+        <v>341.77</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>345.8</v>
       </c>
       <c r="C132" t="n">
-        <v>345.3136363636364</v>
+        <v>345.31</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>318.92</v>
       </c>
       <c r="C134" t="n">
-        <v>323.6754545454546</v>
+        <v>323.68</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>346.39</v>
       </c>
       <c r="C135" t="n">
-        <v>343.0045454545455</v>
+        <v>343</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>343.3</v>
       </c>
       <c r="C136" t="n">
-        <v>345.3072727272727</v>
+        <v>345.31</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>331.8</v>
       </c>
       <c r="C137" t="n">
-        <v>336.7609090909091</v>
+        <v>336.76</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>337.89</v>
       </c>
       <c r="C138" t="n">
-        <v>334.6027272727272</v>
+        <v>334.6</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>330.08</v>
       </c>
       <c r="C139" t="n">
-        <v>339.819090909091</v>
+        <v>339.82</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>339.05</v>
       </c>
       <c r="C140" t="n">
-        <v>342.7818181818182</v>
+        <v>342.78</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>321.1</v>
       </c>
       <c r="C141" t="n">
-        <v>334.0172727272728</v>
+        <v>334.02</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>351.37</v>
       </c>
       <c r="C142" t="n">
-        <v>356.7572727272727</v>
+        <v>356.76</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>340.78</v>
       </c>
       <c r="C143" t="n">
-        <v>354.4845454545454</v>
+        <v>354.48</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>337.62</v>
       </c>
       <c r="C144" t="n">
-        <v>348.0063636363636</v>
+        <v>348.01</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>333.82</v>
       </c>
       <c r="C145" t="n">
-        <v>347.1281818181818</v>
+        <v>347.13</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="n">
-        <v>355.4345454545455</v>
+        <v>355.43</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>329.02</v>
       </c>
       <c r="C148" t="n">
-        <v>336.8209090909091</v>
+        <v>336.82</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>346.37</v>
       </c>
       <c r="C150" t="n">
-        <v>344.2127272727272</v>
+        <v>344.21</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>354.48</v>
       </c>
       <c r="C151" t="n">
-        <v>347.5063636363636</v>
+        <v>347.51</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>349.35</v>
       </c>
       <c r="C152" t="n">
-        <v>351.6327272727273</v>
+        <v>351.63</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
-        <v>339.7218181818182</v>
+        <v>339.72</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>343.09</v>
       </c>
       <c r="C154" t="n">
-        <v>344.6590909090909</v>
+        <v>344.66</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>336.93</v>
       </c>
       <c r="C155" t="n">
-        <v>349.0281818181818</v>
+        <v>349.03</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>340.41</v>
       </c>
       <c r="C156" t="n">
-        <v>340.8754545454545</v>
+        <v>340.88</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>334.56</v>
       </c>
       <c r="C157" t="n">
-        <v>329.6754545454546</v>
+        <v>329.68</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>345.09</v>
       </c>
       <c r="C160" t="n">
-        <v>341.7909090909091</v>
+        <v>341.79</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>335.01</v>
       </c>
       <c r="C161" t="n">
-        <v>340.3718181818182</v>
+        <v>340.37</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>342.17</v>
       </c>
       <c r="C162" t="n">
-        <v>344.6418181818182</v>
+        <v>344.64</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>336.44</v>
       </c>
       <c r="C163" t="n">
-        <v>334.6736363636364</v>
+        <v>334.67</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>342.8</v>
       </c>
       <c r="C164" t="n">
-        <v>354.1427272727273</v>
+        <v>354.14</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>330.5</v>
       </c>
       <c r="C165" t="n">
-        <v>335.4809090909091</v>
+        <v>335.48</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>327.98</v>
       </c>
       <c r="C166" t="n">
-        <v>336.4609090909091</v>
+        <v>336.46</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="n">
-        <v>346.2263636363636</v>
+        <v>346.23</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         <v>326.46</v>
       </c>
       <c r="C168" t="n">
-        <v>338.2354545454546</v>
+        <v>338.24</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         <v>325.24</v>
       </c>
       <c r="C169" t="n">
-        <v>344.1227272727273</v>
+        <v>344.12</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>334.98</v>
       </c>
       <c r="C170" t="n">
-        <v>344.6545454545454</v>
+        <v>344.65</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>332.55</v>
       </c>
       <c r="C171" t="n">
-        <v>338.7845454545454</v>
+        <v>338.78</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>327.73</v>
       </c>
       <c r="C172" t="n">
-        <v>328.9981818181818</v>
+        <v>329</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="n">
-        <v>357.7981818181818</v>
+        <v>357.8</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>348.89</v>
       </c>
       <c r="C174" t="n">
-        <v>367.8354545454546</v>
+        <v>367.84</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>326.97</v>
       </c>
       <c r="C175" t="n">
-        <v>333.4681818181818</v>
+        <v>333.47</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>337.59</v>
       </c>
       <c r="C176" t="n">
-        <v>337.9609090909091</v>
+        <v>337.96</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>341.67</v>
       </c>
       <c r="C177" t="n">
-        <v>346.9736363636364</v>
+        <v>346.97</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>341.43</v>
       </c>
       <c r="C178" t="n">
-        <v>339.5654545454545</v>
+        <v>339.57</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>334.61</v>
       </c>
       <c r="C179" t="n">
-        <v>335.2954545454546</v>
+        <v>335.3</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>347.88</v>
       </c>
       <c r="C181" t="n">
-        <v>350.6009090909091</v>
+        <v>350.6</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>337.06</v>
       </c>
       <c r="C182" t="n">
-        <v>337.5763636363636</v>
+        <v>337.58</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>363.07</v>
       </c>
       <c r="C183" t="n">
-        <v>367.4754545454546</v>
+        <v>367.48</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>345.11</v>
       </c>
       <c r="C184" t="n">
-        <v>337.2309090909091</v>
+        <v>337.23</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>325.29</v>
       </c>
       <c r="C185" t="n">
-        <v>335.8136363636364</v>
+        <v>335.81</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>347.79</v>
       </c>
       <c r="C186" t="n">
-        <v>341.4836363636364</v>
+        <v>341.48</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>335.61</v>
       </c>
       <c r="C187" t="n">
-        <v>342.240909090909</v>
+        <v>342.24</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>332.37</v>
       </c>
       <c r="C188" t="n">
-        <v>333.8318181818182</v>
+        <v>333.83</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>339.73</v>
       </c>
       <c r="C189" t="n">
-        <v>341.6936363636364</v>
+        <v>341.69</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>333.72</v>
       </c>
       <c r="C190" t="n">
-        <v>328.2318181818182</v>
+        <v>328.23</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>348.64</v>
       </c>
       <c r="C192" t="n">
-        <v>349.4054545454546</v>
+        <v>349.41</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>349.52</v>
       </c>
       <c r="C193" t="n">
-        <v>342.6254545454545</v>
+        <v>342.63</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>341.39</v>
       </c>
       <c r="C194" t="n">
-        <v>345.7554545454545</v>
+        <v>345.76</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>353.15</v>
       </c>
       <c r="C195" t="n">
-        <v>348.7790909090909</v>
+        <v>348.78</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>334.44</v>
       </c>
       <c r="C196" t="n">
-        <v>334.7818181818182</v>
+        <v>334.78</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="n">
-        <v>350.6445454545454</v>
+        <v>350.64</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>348.46</v>
       </c>
       <c r="C198" t="n">
-        <v>367.0881818181818</v>
+        <v>367.09</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>338.63</v>
       </c>
       <c r="C199" t="n">
-        <v>342.3127272727273</v>
+        <v>342.31</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>332.19</v>
       </c>
       <c r="C200" t="n">
-        <v>346.6372727272728</v>
+        <v>346.64</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>323.18</v>
       </c>
       <c r="C202" t="n">
-        <v>347.7090909090909</v>
+        <v>347.71</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>331.03</v>
       </c>
       <c r="C203" t="n">
-        <v>337.5181818181818</v>
+        <v>337.52</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>342.06</v>
       </c>
       <c r="C204" t="n">
-        <v>351.6790909090909</v>
+        <v>351.68</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>349.67</v>
       </c>
       <c r="C205" t="n">
-        <v>361.7281818181818</v>
+        <v>361.73</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>342.13</v>
       </c>
       <c r="C206" t="n">
-        <v>344.6845454545455</v>
+        <v>344.68</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>352.62</v>
       </c>
       <c r="C207" t="n">
-        <v>350.1372727272728</v>
+        <v>350.14</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>338.47</v>
       </c>
       <c r="C208" t="n">
-        <v>380.3036363636364</v>
+        <v>380.3</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>349.17</v>
       </c>
       <c r="C209" t="n">
-        <v>348.0018181818182</v>
+        <v>348</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>327.34</v>
       </c>
       <c r="C210" t="n">
-        <v>328.199090909091</v>
+        <v>328.2</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>334.29</v>
       </c>
       <c r="C211" t="n">
-        <v>339.3336363636364</v>
+        <v>339.33</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>343.16</v>
       </c>
       <c r="C212" t="n">
-        <v>340.0236363636364</v>
+        <v>340.02</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>339.75</v>
       </c>
       <c r="C213" t="n">
-        <v>335.9709090909091</v>
+        <v>335.97</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>355.52</v>
       </c>
       <c r="C214" t="n">
-        <v>342.2372727272727</v>
+        <v>342.24</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>353.43</v>
       </c>
       <c r="C215" t="n">
-        <v>351.4718181818182</v>
+        <v>351.47</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>334.95</v>
       </c>
       <c r="C216" t="n">
-        <v>349.0745454545454</v>
+        <v>349.07</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         <v>340.22</v>
       </c>
       <c r="C217" t="n">
-        <v>342.9509090909091</v>
+        <v>342.95</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>350.69</v>
       </c>
       <c r="C218" t="n">
-        <v>348.8054545454545</v>
+        <v>348.81</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>330.33</v>
       </c>
       <c r="C219" t="n">
-        <v>332.4772727272727</v>
+        <v>332.48</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>339.98</v>
       </c>
       <c r="C220" t="n">
-        <v>335.6354545454545</v>
+        <v>335.64</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>340.33</v>
       </c>
       <c r="C221" t="n">
-        <v>337.9463636363636</v>
+        <v>337.95</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>358.78</v>
       </c>
       <c r="C223" t="n">
-        <v>352.5318181818182</v>
+        <v>352.53</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>329.37</v>
       </c>
       <c r="C224" t="n">
-        <v>332.8663636363636</v>
+        <v>332.87</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>349.26</v>
       </c>
       <c r="C225" t="n">
-        <v>344.0054545454545</v>
+        <v>344.01</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>343.02</v>
       </c>
       <c r="C226" t="n">
-        <v>364.8781818181818</v>
+        <v>364.88</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         <v>343.59</v>
       </c>
       <c r="C227" t="n">
-        <v>341.6681818181818</v>
+        <v>341.67</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>320.68</v>
       </c>
       <c r="C228" t="n">
-        <v>329.1636363636364</v>
+        <v>329.16</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>343.09</v>
       </c>
       <c r="C229" t="n">
-        <v>342.7490909090909</v>
+        <v>342.75</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="B230" t="inlineStr"/>
       <c r="C230" t="n">
-        <v>349.1354545454545</v>
+        <v>349.14</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         <v>333.4</v>
       </c>
       <c r="C231" t="n">
-        <v>333.0118181818182</v>
+        <v>333.01</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>323</v>
       </c>
       <c r="C232" t="n">
-        <v>338.9109090909091</v>
+        <v>338.91</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>338.97</v>
       </c>
       <c r="C233" t="n">
-        <v>346.3554545454546</v>
+        <v>346.36</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>337.98</v>
       </c>
       <c r="C234" t="n">
-        <v>345.6772727272727</v>
+        <v>345.68</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>324.79</v>
       </c>
       <c r="C235" t="n">
-        <v>327.0163636363636</v>
+        <v>327.02</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>330.25</v>
       </c>
       <c r="C236" t="n">
-        <v>341.1836363636364</v>
+        <v>341.18</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>342.79</v>
       </c>
       <c r="C237" t="n">
-        <v>348.1554545454546</v>
+        <v>348.16</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>336.53</v>
       </c>
       <c r="C238" t="n">
-        <v>342.4509090909091</v>
+        <v>342.45</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>332.57</v>
       </c>
       <c r="C239" t="n">
-        <v>347.4581818181818</v>
+        <v>347.46</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>338.2</v>
       </c>
       <c r="C241" t="n">
-        <v>342.6590909090909</v>
+        <v>342.66</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>346.67</v>
       </c>
       <c r="C243" t="n">
-        <v>342.8572727272727</v>
+        <v>342.86</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>332.11</v>
       </c>
       <c r="C244" t="n">
-        <v>344.4236363636364</v>
+        <v>344.42</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>329.92</v>
       </c>
       <c r="C245" t="n">
-        <v>338.8990909090909</v>
+        <v>338.9</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>340.68</v>
       </c>
       <c r="C246" t="n">
-        <v>344.8818181818182</v>
+        <v>344.88</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>342.87</v>
       </c>
       <c r="C247" t="n">
-        <v>349.4927272727273</v>
+        <v>349.49</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>329.32</v>
       </c>
       <c r="C248" t="n">
-        <v>325.0427272727272</v>
+        <v>325.04</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>338.92</v>
       </c>
       <c r="C249" t="n">
-        <v>336.5627272727273</v>
+        <v>336.56</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>340.28</v>
       </c>
       <c r="C250" t="n">
-        <v>341.7645454545454</v>
+        <v>341.76</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>342.31</v>
       </c>
       <c r="C251" t="n">
-        <v>343.0863636363636</v>
+        <v>343.09</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>353.84</v>
       </c>
       <c r="C253" t="n">
-        <v>345.6281818181818</v>
+        <v>345.63</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>343.08</v>
       </c>
       <c r="C254" t="n">
-        <v>342.6181818181818</v>
+        <v>342.62</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>340.28</v>
       </c>
       <c r="C256" t="n">
-        <v>335.4727272727272</v>
+        <v>335.47</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>341.75</v>
       </c>
       <c r="C257" t="n">
-        <v>338.670909090909</v>
+        <v>338.67</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>327.42</v>
       </c>
       <c r="C258" t="n">
-        <v>330.2327272727272</v>
+        <v>330.23</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>362.73</v>
       </c>
       <c r="C260" t="n">
-        <v>352.1590909090909</v>
+        <v>352.16</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>351.06</v>
       </c>
       <c r="C261" t="n">
-        <v>345.5118181818182</v>
+        <v>345.51</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         <v>342.72</v>
       </c>
       <c r="C262" t="n">
-        <v>341.2490909090909</v>
+        <v>341.25</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>345.73</v>
       </c>
       <c r="C263" t="n">
-        <v>339.3390909090909</v>
+        <v>339.34</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>360.04</v>
       </c>
       <c r="C264" t="n">
-        <v>351.9754545454546</v>
+        <v>351.98</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>352.1</v>
       </c>
       <c r="C265" t="n">
-        <v>348.5563636363636</v>
+        <v>348.56</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>335.99</v>
       </c>
       <c r="C266" t="n">
-        <v>347.1136363636364</v>
+        <v>347.11</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>349.64</v>
       </c>
       <c r="C267" t="n">
-        <v>351.0736363636364</v>
+        <v>351.07</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>351.85</v>
       </c>
       <c r="C268" t="n">
-        <v>351.6181818181818</v>
+        <v>351.62</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         <v>336.29</v>
       </c>
       <c r="C269" t="n">
-        <v>342.9945454545455</v>
+        <v>342.99</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>344.28</v>
       </c>
       <c r="C270" t="n">
-        <v>343.8290909090909</v>
+        <v>343.83</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>343.18</v>
       </c>
       <c r="C271" t="n">
-        <v>348.3745454545455</v>
+        <v>348.37</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>325.81</v>
       </c>
       <c r="C272" t="n">
-        <v>337.1681818181818</v>
+        <v>337.17</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>336.8</v>
       </c>
       <c r="C273" t="n">
-        <v>353.7127272727272</v>
+        <v>353.71</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>358.99</v>
       </c>
       <c r="C274" t="n">
-        <v>368.0163636363636</v>
+        <v>368.02</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>367.9</v>
       </c>
       <c r="C275" t="n">
-        <v>365.1454545454546</v>
+        <v>365.15</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>343.27</v>
       </c>
       <c r="C276" t="n">
-        <v>354.8227272727273</v>
+        <v>354.82</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>332.65</v>
       </c>
       <c r="C277" t="n">
-        <v>341.5727272727273</v>
+        <v>341.57</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         <v>338.89</v>
       </c>
       <c r="C278" t="n">
-        <v>344.4572727272728</v>
+        <v>344.46</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
       </c>
       <c r="B280" t="inlineStr"/>
       <c r="C280" t="n">
-        <v>346.8163636363636</v>
+        <v>346.82</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>337.45</v>
       </c>
       <c r="C282" t="n">
-        <v>350.2727272727273</v>
+        <v>350.27</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>336.84</v>
       </c>
       <c r="C283" t="n">
-        <v>335.7181818181818</v>
+        <v>335.72</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>353.86</v>
       </c>
       <c r="C284" t="n">
-        <v>349.7281818181818</v>
+        <v>349.73</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>336.39</v>
       </c>
       <c r="C285" t="n">
-        <v>347.8245454545454</v>
+        <v>347.82</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>342.68</v>
       </c>
       <c r="C286" t="n">
-        <v>340.4590909090909</v>
+        <v>340.46</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>335.24</v>
       </c>
       <c r="C287" t="n">
-        <v>342.7145454545454</v>
+        <v>342.71</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>334.74</v>
       </c>
       <c r="C288" t="n">
-        <v>337.1663636363636</v>
+        <v>337.17</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>334.74</v>
       </c>
       <c r="C289" t="n">
-        <v>329.6045454545454</v>
+        <v>329.6</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>349.56</v>
       </c>
       <c r="C290" t="n">
-        <v>346.0154545454546</v>
+        <v>346.02</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>353.49</v>
       </c>
       <c r="C292" t="n">
-        <v>351.6618181818182</v>
+        <v>351.66</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>333.41</v>
       </c>
       <c r="C294" t="n">
-        <v>337.9709090909091</v>
+        <v>337.97</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>334.25</v>
       </c>
       <c r="C295" t="n">
-        <v>333.1263636363636</v>
+        <v>333.13</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>345.06</v>
       </c>
       <c r="C296" t="n">
-        <v>346.370909090909</v>
+        <v>346.37</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>349.67</v>
       </c>
       <c r="C297" t="n">
-        <v>349.9136363636364</v>
+        <v>349.91</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>339.09</v>
       </c>
       <c r="C298" t="n">
-        <v>346.0045454545455</v>
+        <v>346</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>345.18</v>
       </c>
       <c r="C299" t="n">
-        <v>343.5336363636364</v>
+        <v>343.53</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>345.04</v>
       </c>
       <c r="C300" t="n">
-        <v>347.9990909090909</v>
+        <v>348</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>335.48</v>
       </c>
       <c r="C302" t="n">
-        <v>342.9172727272727</v>
+        <v>342.92</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>336.28</v>
       </c>
       <c r="C303" t="n">
-        <v>354.8745454545455</v>
+        <v>354.87</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>333.72</v>
       </c>
       <c r="C304" t="n">
-        <v>343.5709090909091</v>
+        <v>343.57</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>306.73</v>
       </c>
       <c r="C305" t="n">
-        <v>347.4227272727272</v>
+        <v>347.42</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>331.08</v>
       </c>
       <c r="C306" t="n">
-        <v>345.870909090909</v>
+        <v>345.87</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>341.25</v>
       </c>
       <c r="C307" t="n">
-        <v>343.1372727272728</v>
+        <v>343.14</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>333.28</v>
       </c>
       <c r="C308" t="n">
-        <v>351.7463636363636</v>
+        <v>351.75</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>338.73</v>
       </c>
       <c r="C309" t="n">
-        <v>348.680909090909</v>
+        <v>348.68</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>342.96</v>
       </c>
       <c r="C310" t="n">
-        <v>348.9136363636364</v>
+        <v>348.91</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>329.59</v>
       </c>
       <c r="C311" t="n">
-        <v>336.9290909090909</v>
+        <v>336.93</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>334.6</v>
       </c>
       <c r="C312" t="n">
-        <v>336.6445454545454</v>
+        <v>336.64</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>354.81</v>
       </c>
       <c r="C313" t="n">
-        <v>350.6072727272727</v>
+        <v>350.61</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>354.19</v>
       </c>
       <c r="C315" t="n">
-        <v>355.0327272727272</v>
+        <v>355.03</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>339.18</v>
       </c>
       <c r="C316" t="n">
-        <v>331.6645454545454</v>
+        <v>331.66</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>353.68</v>
       </c>
       <c r="C317" t="n">
-        <v>345.5290909090909</v>
+        <v>345.53</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>334.52</v>
       </c>
       <c r="C319" t="n">
-        <v>332.2327272727272</v>
+        <v>332.23</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>362.28</v>
       </c>
       <c r="C320" t="n">
-        <v>350.4281818181818</v>
+        <v>350.43</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>341.48</v>
       </c>
       <c r="C321" t="n">
-        <v>338.4390909090909</v>
+        <v>338.44</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>334.67</v>
       </c>
       <c r="C322" t="n">
-        <v>338.9236363636364</v>
+        <v>338.92</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>328.7</v>
       </c>
       <c r="C323" t="n">
-        <v>331.1863636363636</v>
+        <v>331.19</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>347.03</v>
       </c>
       <c r="C324" t="n">
-        <v>348.4445454545454</v>
+        <v>348.44</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>336.22</v>
       </c>
       <c r="C325" t="n">
-        <v>349.7090909090909</v>
+        <v>349.71</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
       </c>
       <c r="B326" t="inlineStr"/>
       <c r="C326" t="n">
-        <v>350.6872727272727</v>
+        <v>350.69</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>330.64</v>
       </c>
       <c r="C327" t="n">
-        <v>338.9618181818182</v>
+        <v>338.96</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>330.2</v>
       </c>
       <c r="C328" t="n">
-        <v>338.4481818181818</v>
+        <v>338.45</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>331.48</v>
       </c>
       <c r="C329" t="n">
-        <v>341.9163636363636</v>
+        <v>341.92</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>322.81</v>
       </c>
       <c r="C330" t="n">
-        <v>335.379090909091</v>
+        <v>335.38</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>336.28</v>
       </c>
       <c r="C331" t="n">
-        <v>339.0381818181818</v>
+        <v>339.04</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>341.08</v>
       </c>
       <c r="C332" t="n">
-        <v>351.6581818181818</v>
+        <v>351.66</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>339.8</v>
       </c>
       <c r="C334" t="n">
-        <v>350.0609090909091</v>
+        <v>350.06</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>340.13</v>
       </c>
       <c r="C335" t="n">
-        <v>355.0554545454545</v>
+        <v>355.06</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>337.13</v>
       </c>
       <c r="C336" t="n">
-        <v>347.9327272727273</v>
+        <v>347.93</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>321.04</v>
       </c>
       <c r="C337" t="n">
-        <v>320.7454545454545</v>
+        <v>320.75</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>331.3</v>
       </c>
       <c r="C338" t="n">
-        <v>319.4690909090909</v>
+        <v>319.47</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>346.33</v>
       </c>
       <c r="C339" t="n">
-        <v>344.7881818181818</v>
+        <v>344.79</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>359.37</v>
       </c>
       <c r="C340" t="n">
-        <v>351.1445454545454</v>
+        <v>351.14</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>340.06</v>
       </c>
       <c r="C341" t="n">
-        <v>340.3627272727272</v>
+        <v>340.36</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>354.57</v>
       </c>
       <c r="C343" t="n">
-        <v>345.9190909090909</v>
+        <v>345.92</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>339.23</v>
       </c>
       <c r="C344" t="n">
-        <v>339.9890909090909</v>
+        <v>339.99</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>332.75</v>
       </c>
       <c r="C345" t="n">
-        <v>339.9927272727273</v>
+        <v>339.99</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>337.86</v>
       </c>
       <c r="C346" t="n">
-        <v>337.7990909090909</v>
+        <v>337.8</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>340.14</v>
       </c>
       <c r="C348" t="n">
-        <v>336.1145454545455</v>
+        <v>336.11</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -6656,7 +6656,7 @@
         <v>350.35</v>
       </c>
       <c r="C349" t="n">
-        <v>348.3754545454545</v>
+        <v>348.38</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>351.86</v>
       </c>
       <c r="C350" t="n">
-        <v>349.2163636363636</v>
+        <v>349.22</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>338.52</v>
       </c>
       <c r="C351" t="n">
-        <v>343.1827272727273</v>
+        <v>343.18</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>345.31</v>
       </c>
       <c r="C352" t="n">
-        <v>350.4809090909091</v>
+        <v>350.48</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>327.24</v>
       </c>
       <c r="C353" t="n">
-        <v>330.1981818181818</v>
+        <v>330.2</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>332.38</v>
       </c>
       <c r="C356" t="n">
-        <v>337.5481818181818</v>
+        <v>337.55</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>336.01</v>
       </c>
       <c r="C357" t="n">
-        <v>346.9109090909091</v>
+        <v>346.91</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>331.8</v>
       </c>
       <c r="C358" t="n">
-        <v>350.2236363636364</v>
+        <v>350.22</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>329.14</v>
       </c>
       <c r="C359" t="n">
-        <v>341.4972727272728</v>
+        <v>341.5</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>329.82</v>
       </c>
       <c r="C360" t="n">
-        <v>339.2472727272728</v>
+        <v>339.25</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>352.23</v>
       </c>
       <c r="C363" t="n">
-        <v>353.9027272727272</v>
+        <v>353.9</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>350.58</v>
       </c>
       <c r="C364" t="n">
-        <v>352.7663636363636</v>
+        <v>352.77</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>346.16</v>
       </c>
       <c r="C365" t="n">
-        <v>346.8518181818182</v>
+        <v>346.85</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>352.64</v>
       </c>
       <c r="C366" t="n">
-        <v>345.3672727272727</v>
+        <v>345.37</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>344.29</v>
       </c>
       <c r="C367" t="n">
-        <v>341.2163636363636</v>
+        <v>341.22</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>337.29</v>
       </c>
       <c r="C368" t="n">
-        <v>337.8563636363637</v>
+        <v>337.86</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>349.31</v>
       </c>
       <c r="C369" t="n">
-        <v>343.7927272727272</v>
+        <v>343.79</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>363.12</v>
       </c>
       <c r="C370" t="n">
-        <v>366.2854545454546</v>
+        <v>366.29</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>338.67</v>
       </c>
       <c r="C371" t="n">
-        <v>343.2945454545454</v>
+        <v>343.29</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>334.17</v>
       </c>
       <c r="C372" t="n">
-        <v>335.5127272727273</v>
+        <v>335.51</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>338.13</v>
       </c>
       <c r="C373" t="n">
-        <v>333.4890909090909</v>
+        <v>333.49</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>335.04</v>
       </c>
       <c r="C374" t="n">
-        <v>337.3618181818182</v>
+        <v>337.36</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>336.41</v>
       </c>
       <c r="C375" t="n">
-        <v>345.9718181818182</v>
+        <v>345.97</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>340.71</v>
       </c>
       <c r="C376" t="n">
-        <v>339.8254545454545</v>
+        <v>339.83</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>339.97</v>
       </c>
       <c r="C378" t="n">
-        <v>347.7109090909091</v>
+        <v>347.71</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>325.07</v>
       </c>
       <c r="C379" t="n">
-        <v>330.9109090909091</v>
+        <v>330.91</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>343.58</v>
       </c>
       <c r="C380" t="n">
-        <v>343.4845454545454</v>
+        <v>343.48</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>332.53</v>
       </c>
       <c r="C381" t="n">
-        <v>342.120909090909</v>
+        <v>342.12</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>346.03</v>
       </c>
       <c r="C382" t="n">
-        <v>359.4472727272728</v>
+        <v>359.45</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>343.96</v>
       </c>
       <c r="C383" t="n">
-        <v>353.8872727272728</v>
+        <v>353.89</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>329.13</v>
       </c>
       <c r="C385" t="n">
-        <v>337.3336363636364</v>
+        <v>337.33</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>334.99</v>
       </c>
       <c r="C386" t="n">
-        <v>342.7263636363636</v>
+        <v>342.73</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>331.36</v>
       </c>
       <c r="C387" t="n">
-        <v>340.1281818181818</v>
+        <v>340.13</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>330.28</v>
       </c>
       <c r="C388" t="n">
-        <v>341.3736363636364</v>
+        <v>341.37</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>337.34</v>
       </c>
       <c r="C390" t="n">
-        <v>335.3690909090909</v>
+        <v>335.37</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>335.05</v>
       </c>
       <c r="C391" t="n">
-        <v>345.2781818181818</v>
+        <v>345.28</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>341.68</v>
       </c>
       <c r="C392" t="n">
-        <v>348.5990909090909</v>
+        <v>348.6</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>344.59</v>
       </c>
       <c r="C393" t="n">
-        <v>351.4163636363636</v>
+        <v>351.42</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>338.48</v>
       </c>
       <c r="C394" t="n">
-        <v>353.4936363636364</v>
+        <v>353.49</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>335.74</v>
       </c>
       <c r="C395" t="n">
-        <v>337.1845454545455</v>
+        <v>337.18</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>333.9</v>
       </c>
       <c r="C396" t="n">
-        <v>349.7936363636364</v>
+        <v>349.79</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>348.08</v>
       </c>
       <c r="C397" t="n">
-        <v>351.2190909090909</v>
+        <v>351.22</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>340.38</v>
       </c>
       <c r="C399" t="n">
-        <v>348.8209090909091</v>
+        <v>348.82</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>327.15</v>
       </c>
       <c r="C400" t="n">
-        <v>329.5427272727272</v>
+        <v>329.54</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>345.97</v>
       </c>
       <c r="C402" t="n">
-        <v>344.7236363636364</v>
+        <v>344.72</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>339.33</v>
       </c>
       <c r="C404" t="n">
-        <v>337.1518181818182</v>
+        <v>337.15</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>327.81</v>
       </c>
       <c r="C405" t="n">
-        <v>328.7527272727273</v>
+        <v>328.75</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
       </c>
       <c r="B406" t="inlineStr"/>
       <c r="C406" t="n">
-        <v>334.4336363636364</v>
+        <v>334.43</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>348.34</v>
       </c>
       <c r="C407" t="n">
-        <v>346.7154545454546</v>
+        <v>346.72</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>343.13</v>
       </c>
       <c r="C408" t="n">
-        <v>342.740909090909</v>
+        <v>342.74</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>355.69</v>
       </c>
       <c r="C409" t="n">
-        <v>350.0954545454546</v>
+        <v>350.1</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>325.27</v>
       </c>
       <c r="C410" t="n">
-        <v>342.9927272727273</v>
+        <v>342.99</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>336.62</v>
       </c>
       <c r="C411" t="n">
-        <v>339.6590909090909</v>
+        <v>339.66</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>333.63</v>
       </c>
       <c r="C412" t="n">
-        <v>336.9563636363636</v>
+        <v>336.96</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>324.38</v>
       </c>
       <c r="C414" t="n">
-        <v>333.5854545454546</v>
+        <v>333.59</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>346.34</v>
       </c>
       <c r="C415" t="n">
-        <v>346.3445454545454</v>
+        <v>346.34</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>328.7</v>
       </c>
       <c r="C416" t="n">
-        <v>344.0281818181818</v>
+        <v>344.03</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>340.25</v>
       </c>
       <c r="C417" t="n">
-        <v>350.6263636363636</v>
+        <v>350.63</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>333.98</v>
       </c>
       <c r="C418" t="n">
-        <v>350.1518181818182</v>
+        <v>350.15</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>325.15</v>
       </c>
       <c r="C419" t="n">
-        <v>343.5954545454546</v>
+        <v>343.6</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
       </c>
       <c r="B421" t="inlineStr"/>
       <c r="C421" t="n">
-        <v>336.3163636363636</v>
+        <v>336.32</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>339.04</v>
       </c>
       <c r="C422" t="n">
-        <v>339.8727272727273</v>
+        <v>339.87</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>327.38</v>
       </c>
       <c r="C424" t="n">
-        <v>338.4809090909091</v>
+        <v>338.48</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>334.48</v>
       </c>
       <c r="C426" t="n">
-        <v>340.8718181818182</v>
+        <v>340.87</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>336.06</v>
       </c>
       <c r="C428" t="n">
-        <v>344.6318181818182</v>
+        <v>344.63</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>337.2</v>
       </c>
       <c r="C429" t="n">
-        <v>351.0672727272727</v>
+        <v>351.07</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>353.65</v>
       </c>
       <c r="C430" t="n">
-        <v>355.9263636363636</v>
+        <v>355.93</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>343.47</v>
       </c>
       <c r="C431" t="n">
-        <v>343.4945454545455</v>
+        <v>343.49</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>339.58</v>
       </c>
       <c r="C433" t="n">
-        <v>343.5136363636364</v>
+        <v>343.51</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>344.59</v>
       </c>
       <c r="C434" t="n">
-        <v>351.7654545454546</v>
+        <v>351.77</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>331.73</v>
       </c>
       <c r="C435" t="n">
-        <v>334.0263636363636</v>
+        <v>334.03</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>337.48</v>
       </c>
       <c r="C436" t="n">
-        <v>346.9509090909091</v>
+        <v>346.95</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>341.68</v>
       </c>
       <c r="C438" t="n">
-        <v>338.3345454545454</v>
+        <v>338.33</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
         <v>357.8</v>
       </c>
       <c r="C439" t="n">
-        <v>351.1245454545455</v>
+        <v>351.12</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>333.76</v>
       </c>
       <c r="C440" t="n">
-        <v>338.3345454545454</v>
+        <v>338.33</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -8298,7 +8298,7 @@
         <v>330.31</v>
       </c>
       <c r="C441" t="n">
-        <v>335.4754545454546</v>
+        <v>335.48</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>339.37</v>
       </c>
       <c r="C442" t="n">
-        <v>335.6545454545454</v>
+        <v>335.65</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>341.63</v>
       </c>
       <c r="C443" t="n">
-        <v>339.4536363636363</v>
+        <v>339.45</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>356.59</v>
       </c>
       <c r="C444" t="n">
-        <v>351.5245454545454</v>
+        <v>351.52</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>350.44</v>
       </c>
       <c r="C445" t="n">
-        <v>348.0245454545454</v>
+        <v>348.02</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>350.97</v>
       </c>
       <c r="C446" t="n">
-        <v>342.6381818181818</v>
+        <v>342.64</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>339.5</v>
       </c>
       <c r="C448" t="n">
-        <v>340.2918181818182</v>
+        <v>340.29</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B449" t="inlineStr"/>
       <c r="C449" t="n">
-        <v>351.1718181818182</v>
+        <v>351.17</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>341.73</v>
       </c>
       <c r="C450" t="n">
-        <v>354.5163636363636</v>
+        <v>354.52</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>340.87</v>
       </c>
       <c r="C451" t="n">
-        <v>351.7227272727272</v>
+        <v>351.72</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>338.84</v>
       </c>
       <c r="C452" t="n">
-        <v>342.2045454545454</v>
+        <v>342.2</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>333.43</v>
       </c>
       <c r="C453" t="n">
-        <v>335.670909090909</v>
+        <v>335.67</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>340.21</v>
       </c>
       <c r="C454" t="n">
-        <v>340.6009090909091</v>
+        <v>340.6</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>335.48</v>
       </c>
       <c r="C455" t="n">
-        <v>338.9563636363636</v>
+        <v>338.96</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>334.5</v>
       </c>
       <c r="C457" t="n">
-        <v>342.8463636363636</v>
+        <v>342.85</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>325.39</v>
       </c>
       <c r="C458" t="n">
-        <v>333.7109090909091</v>
+        <v>333.71</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>334.01</v>
       </c>
       <c r="C459" t="n">
-        <v>337.7354545454546</v>
+        <v>337.74</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>328.15</v>
       </c>
       <c r="C462" t="n">
-        <v>343.7709090909091</v>
+        <v>343.77</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>333.02</v>
       </c>
       <c r="C463" t="n">
-        <v>341.5654545454545</v>
+        <v>341.57</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>311.72</v>
       </c>
       <c r="C464" t="n">
-        <v>319.259090909091</v>
+        <v>319.26</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>313.5</v>
       </c>
       <c r="C465" t="n">
-        <v>326.4290909090909</v>
+        <v>326.43</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>342.36</v>
       </c>
       <c r="C466" t="n">
-        <v>351.1772727272727</v>
+        <v>351.18</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>330.98</v>
       </c>
       <c r="C467" t="n">
-        <v>346.0590909090909</v>
+        <v>346.06</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>335.1</v>
       </c>
       <c r="C468" t="n">
-        <v>344.4390909090909</v>
+        <v>344.44</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>339.14</v>
       </c>
       <c r="C469" t="n">
-        <v>347.0290909090909</v>
+        <v>347.03</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>337.8</v>
       </c>
       <c r="C470" t="n">
-        <v>348.6036363636364</v>
+        <v>348.6</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>338.9</v>
       </c>
       <c r="C471" t="n">
-        <v>343.7281818181818</v>
+        <v>343.73</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>341.85</v>
       </c>
       <c r="C472" t="n">
-        <v>348.5454545454546</v>
+        <v>348.55</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
       </c>
       <c r="B473" t="inlineStr"/>
       <c r="C473" t="n">
-        <v>299.4218181818182</v>
+        <v>299.42</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>349.27</v>
       </c>
       <c r="C474" t="n">
-        <v>331.4109090909091</v>
+        <v>331.41</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>347.2</v>
       </c>
       <c r="C476" t="n">
-        <v>343.3690909090909</v>
+        <v>343.37</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>345.09</v>
       </c>
       <c r="C477" t="n">
-        <v>343.6672727272727</v>
+        <v>343.67</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>341.51</v>
       </c>
       <c r="C478" t="n">
-        <v>341.6781818181818</v>
+        <v>341.68</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>338.57</v>
       </c>
       <c r="C479" t="n">
-        <v>341.6381818181818</v>
+        <v>341.64</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>343.13</v>
       </c>
       <c r="C480" t="n">
-        <v>346.4918181818182</v>
+        <v>346.49</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>329</v>
       </c>
       <c r="C481" t="n">
-        <v>336.5709090909091</v>
+        <v>336.57</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>336.88</v>
       </c>
       <c r="C483" t="n">
-        <v>351.8972727272728</v>
+        <v>351.9</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>337.74</v>
       </c>
       <c r="C484" t="n">
-        <v>342.9427272727273</v>
+        <v>342.94</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>359.22</v>
       </c>
       <c r="C486" t="n">
-        <v>363.009090909091</v>
+        <v>363.01</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>342.38</v>
       </c>
       <c r="C488" t="n">
-        <v>343.4109090909091</v>
+        <v>343.41</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
       </c>
       <c r="B489" t="inlineStr"/>
       <c r="C489" t="n">
-        <v>354.1436363636363</v>
+        <v>354.14</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>345.66</v>
       </c>
       <c r="C490" t="n">
-        <v>339.0845454545454</v>
+        <v>339.08</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>340.15</v>
       </c>
       <c r="C491" t="n">
-        <v>344.1718181818182</v>
+        <v>344.17</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>345.9</v>
       </c>
       <c r="C492" t="n">
-        <v>352.9872727272727</v>
+        <v>352.99</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>337.91</v>
       </c>
       <c r="C493" t="n">
-        <v>337.5636363636364</v>
+        <v>337.56</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>325.63</v>
       </c>
       <c r="C494" t="n">
-        <v>332.4409090909091</v>
+        <v>332.44</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>340.31</v>
       </c>
       <c r="C495" t="n">
-        <v>342.3354545454546</v>
+        <v>342.34</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>339.23</v>
       </c>
       <c r="C496" t="n">
-        <v>354.6309090909091</v>
+        <v>354.63</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>345.14</v>
       </c>
       <c r="C497" t="n">
-        <v>344.3663636363636</v>
+        <v>344.37</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>354.48</v>
       </c>
       <c r="C498" t="n">
-        <v>354.2063636363636</v>
+        <v>354.21</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>345.12</v>
       </c>
       <c r="C499" t="n">
-        <v>344.7390909090909</v>
+        <v>344.74</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>336.31</v>
       </c>
       <c r="C500" t="n">
-        <v>350.5054545454545</v>
+        <v>350.51</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>335.38</v>
       </c>
       <c r="C501" t="n">
-        <v>350.3854545454545</v>
+        <v>350.39</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>340.09</v>
       </c>
       <c r="C502" t="n">
-        <v>344.490909090909</v>
+        <v>344.49</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>337.56</v>
       </c>
       <c r="C503" t="n">
-        <v>348.4836363636364</v>
+        <v>348.48</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         <v>329.54</v>
       </c>
       <c r="C504" t="n">
-        <v>338.6363636363636</v>
+        <v>338.64</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>333.65</v>
       </c>
       <c r="C505" t="n">
-        <v>342.8109090909091</v>
+        <v>342.81</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -9452,7 +9452,7 @@
         <v>323.79</v>
       </c>
       <c r="C506" t="n">
-        <v>340.4481818181818</v>
+        <v>340.45</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>330.02</v>
       </c>
       <c r="C508" t="n">
-        <v>343.2654545454546</v>
+        <v>343.27</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>342.99</v>
       </c>
       <c r="C510" t="n">
-        <v>346.8963636363636</v>
+        <v>346.9</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>322.8</v>
       </c>
       <c r="C511" t="n">
-        <v>332.1836363636364</v>
+        <v>332.18</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>334.01</v>
       </c>
       <c r="C512" t="n">
-        <v>339.9772727272727</v>
+        <v>339.98</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>335.11</v>
       </c>
       <c r="C513" t="n">
-        <v>336.3890909090909</v>
+        <v>336.39</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>339.64</v>
       </c>
       <c r="C514" t="n">
-        <v>345.3227272727273</v>
+        <v>345.32</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>331.22</v>
       </c>
       <c r="C515" t="n">
-        <v>343.3863636363636</v>
+        <v>343.39</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>336.54</v>
       </c>
       <c r="C516" t="n">
-        <v>342.0854545454546</v>
+        <v>342.09</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>357.69</v>
       </c>
       <c r="C517" t="n">
-        <v>357.2536363636364</v>
+        <v>357.25</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>345.18</v>
       </c>
       <c r="C519" t="n">
-        <v>364.4336363636364</v>
+        <v>364.43</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>342.19</v>
       </c>
       <c r="C520" t="n">
-        <v>340.3736363636364</v>
+        <v>340.37</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>338.58</v>
       </c>
       <c r="C521" t="n">
-        <v>342.8390909090909</v>
+        <v>342.84</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>351.25</v>
       </c>
       <c r="C522" t="n">
-        <v>356.4127272727272</v>
+        <v>356.41</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>325.15</v>
       </c>
       <c r="C523" t="n">
-        <v>337.1827272727273</v>
+        <v>337.18</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>339.4</v>
       </c>
       <c r="C524" t="n">
-        <v>340.9681818181818</v>
+        <v>340.97</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>351.24</v>
       </c>
       <c r="C525" t="n">
-        <v>346.3863636363636</v>
+        <v>346.39</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>353.96</v>
       </c>
       <c r="C526" t="n">
-        <v>343.5009090909091</v>
+        <v>343.5</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         <v>336.53</v>
       </c>
       <c r="C527" t="n">
-        <v>341.0036363636364</v>
+        <v>341</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>338.11</v>
       </c>
       <c r="C529" t="n">
-        <v>336.4036363636364</v>
+        <v>336.4</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>341.53</v>
       </c>
       <c r="C530" t="n">
-        <v>341.6236363636364</v>
+        <v>341.62</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>346.45</v>
       </c>
       <c r="C531" t="n">
-        <v>340.8590909090909</v>
+        <v>340.86</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>357.55</v>
       </c>
       <c r="C532" t="n">
-        <v>349.4818181818182</v>
+        <v>349.48</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>377.8</v>
       </c>
       <c r="C533" t="n">
-        <v>364.8754545454545</v>
+        <v>364.88</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>349.33</v>
       </c>
       <c r="C534" t="n">
-        <v>352.0263636363636</v>
+        <v>352.03</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>332.34</v>
       </c>
       <c r="C535" t="n">
-        <v>330.4172727272727</v>
+        <v>330.42</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -9990,7 +9990,7 @@
         <v>331.18</v>
       </c>
       <c r="C536" t="n">
-        <v>329.8472727272728</v>
+        <v>329.85</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>335.86</v>
       </c>
       <c r="C538" t="n">
-        <v>374.8772727272727</v>
+        <v>374.88</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>335.2</v>
       </c>
       <c r="C539" t="n">
-        <v>336.0390909090909</v>
+        <v>336.04</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>330.39</v>
       </c>
       <c r="C540" t="n">
-        <v>332.8518181818182</v>
+        <v>332.85</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>345.15</v>
       </c>
       <c r="C541" t="n">
-        <v>339.9672727272728</v>
+        <v>339.97</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>339.11</v>
       </c>
       <c r="C542" t="n">
-        <v>337.4709090909091</v>
+        <v>337.47</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>346.09</v>
       </c>
       <c r="C543" t="n">
-        <v>344.6018181818182</v>
+        <v>344.6</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>337.29</v>
       </c>
       <c r="C545" t="n">
-        <v>342.4681818181818</v>
+        <v>342.47</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>332.97</v>
       </c>
       <c r="C546" t="n">
-        <v>333.9563636363636</v>
+        <v>333.96</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>339.25</v>
       </c>
       <c r="C547" t="n">
-        <v>343.0309090909091</v>
+        <v>343.03</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>334.47</v>
       </c>
       <c r="C548" t="n">
-        <v>339.1781818181818</v>
+        <v>339.18</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>340.89</v>
       </c>
       <c r="C549" t="n">
-        <v>345.2736363636364</v>
+        <v>345.27</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>331.57</v>
       </c>
       <c r="C550" t="n">
-        <v>339.2554545454545</v>
+        <v>339.26</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>322.38</v>
       </c>
       <c r="C551" t="n">
-        <v>328.4445454545454</v>
+        <v>328.44</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>345.41</v>
       </c>
       <c r="C552" t="n">
-        <v>348.8436363636364</v>
+        <v>348.84</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>332.93</v>
       </c>
       <c r="C553" t="n">
-        <v>340.4272727272727</v>
+        <v>340.43</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>330.14</v>
       </c>
       <c r="C554" t="n">
-        <v>344.6254545454545</v>
+        <v>344.63</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>332.47</v>
       </c>
       <c r="C555" t="n">
-        <v>344.3472727272728</v>
+        <v>344.35</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>351.2</v>
       </c>
       <c r="C556" t="n">
-        <v>379.0590909090909</v>
+        <v>379.06</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>338.66</v>
       </c>
       <c r="C558" t="n">
-        <v>343.3663636363636</v>
+        <v>343.37</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>339.76</v>
       </c>
       <c r="C559" t="n">
-        <v>348.0209090909091</v>
+        <v>348.02</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>340.3</v>
       </c>
       <c r="C560" t="n">
-        <v>345.7972727272727</v>
+        <v>345.8</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>336.84</v>
       </c>
       <c r="C561" t="n">
-        <v>340.2545454545455</v>
+        <v>340.25</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>344.44</v>
       </c>
       <c r="C562" t="n">
-        <v>343.1772727272727</v>
+        <v>343.18</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>337.9</v>
       </c>
       <c r="C563" t="n">
-        <v>340.7954545454546</v>
+        <v>340.8</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>341.29</v>
       </c>
       <c r="C564" t="n">
-        <v>348.5790909090909</v>
+        <v>348.58</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>335.86</v>
       </c>
       <c r="C565" t="n">
-        <v>343.5709090909091</v>
+        <v>343.57</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>348.68</v>
       </c>
       <c r="C566" t="n">
-        <v>360.0645454545455</v>
+        <v>360.06</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>360.11</v>
       </c>
       <c r="C567" t="n">
-        <v>379.1190909090909</v>
+        <v>379.12</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>346.95</v>
       </c>
       <c r="C568" t="n">
-        <v>343.7090909090909</v>
+        <v>343.71</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>335.57</v>
       </c>
       <c r="C569" t="n">
-        <v>330.5354545454546</v>
+        <v>330.54</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B570" t="inlineStr"/>
       <c r="C570" t="n">
-        <v>334.7018181818182</v>
+        <v>334.7</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>342.68</v>
       </c>
       <c r="C571" t="n">
-        <v>344.0318181818182</v>
+        <v>344.03</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>348.93</v>
       </c>
       <c r="C572" t="n">
-        <v>343.5063636363636</v>
+        <v>343.51</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>329.08</v>
       </c>
       <c r="C573" t="n">
-        <v>331.3418181818182</v>
+        <v>331.34</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>351.97</v>
       </c>
       <c r="C574" t="n">
-        <v>346.8872727272728</v>
+        <v>346.89</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>335.22</v>
       </c>
       <c r="C575" t="n">
-        <v>348.9081818181818</v>
+        <v>348.91</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
       </c>
       <c r="B576" t="inlineStr"/>
       <c r="C576" t="n">
-        <v>329.3345454545454</v>
+        <v>329.33</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>339.07</v>
       </c>
       <c r="C577" t="n">
-        <v>355.9290909090909</v>
+        <v>355.93</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>355.44</v>
       </c>
       <c r="C578" t="n">
-        <v>349.5736363636364</v>
+        <v>349.57</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>343.72</v>
       </c>
       <c r="C580" t="n">
-        <v>357.3163636363636</v>
+        <v>357.32</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>329.26</v>
       </c>
       <c r="C581" t="n">
-        <v>334.9954545454545</v>
+        <v>335</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>342.73</v>
       </c>
       <c r="C582" t="n">
-        <v>348.6572727272728</v>
+        <v>348.66</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>345.62</v>
       </c>
       <c r="C583" t="n">
-        <v>352.3336363636364</v>
+        <v>352.33</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>335.34</v>
       </c>
       <c r="C584" t="n">
-        <v>349.8990909090909</v>
+        <v>349.9</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -10864,7 +10864,7 @@
         <v>330.01</v>
       </c>
       <c r="C585" t="n">
-        <v>344.9654545454546</v>
+        <v>344.97</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>345.5</v>
       </c>
       <c r="C587" t="n">
-        <v>351.4281818181818</v>
+        <v>351.43</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>331.21</v>
       </c>
       <c r="C588" t="n">
-        <v>339.8081818181818</v>
+        <v>339.81</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>344.3</v>
       </c>
       <c r="C589" t="n">
-        <v>350.1145454545455</v>
+        <v>350.11</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>331.94</v>
       </c>
       <c r="C590" t="n">
-        <v>342.3836363636364</v>
+        <v>342.38</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>332.32</v>
       </c>
       <c r="C591" t="n">
-        <v>340.2209090909091</v>
+        <v>340.22</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         <v>334.14</v>
       </c>
       <c r="C592" t="n">
-        <v>348.4281818181818</v>
+        <v>348.43</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>321.78</v>
       </c>
       <c r="C593" t="n">
-        <v>339.9718181818182</v>
+        <v>339.97</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>340.18</v>
       </c>
       <c r="C594" t="n">
-        <v>355.3809090909091</v>
+        <v>355.38</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -11044,7 +11044,7 @@
         <v>339.46</v>
       </c>
       <c r="C595" t="n">
-        <v>347.0863636363636</v>
+        <v>347.09</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>333.42</v>
       </c>
       <c r="C596" t="n">
-        <v>345.6418181818182</v>
+        <v>345.64</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>334.24</v>
       </c>
       <c r="C597" t="n">
-        <v>338.1163636363636</v>
+        <v>338.12</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
       </c>
       <c r="B598" t="inlineStr"/>
       <c r="C598" t="n">
-        <v>361.4427272727273</v>
+        <v>361.44</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>339.51</v>
       </c>
       <c r="C599" t="n">
-        <v>352.9181818181818</v>
+        <v>352.92</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>333.05</v>
       </c>
       <c r="C600" t="n">
-        <v>319.2681818181818</v>
+        <v>319.27</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>337.99</v>
       </c>
       <c r="C601" t="n">
-        <v>339.0236363636364</v>
+        <v>339.02</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>319.92</v>
       </c>
       <c r="C602" t="n">
-        <v>324.9627272727272</v>
+        <v>324.96</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>345.88</v>
       </c>
       <c r="C604" t="n">
-        <v>342.0290909090909</v>
+        <v>342.03</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>333.61</v>
       </c>
       <c r="C606" t="n">
-        <v>338.0672727272727</v>
+        <v>338.07</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>0.0608</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07337805201832064</v>
+        <v>-0.0733394711551371</v>
       </c>
       <c r="J3" t="n">
         <v>605</v>
@@ -18977,19 +18977,19 @@
         <v>580</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00331296062473263</v>
+        <v>0.003309345311831025</v>
       </c>
       <c r="M3" t="n">
-        <v>6.411415142231773</v>
+        <v>6.411577106492181</v>
       </c>
       <c r="N3" t="n">
-        <v>75.68823836127764</v>
+        <v>75.69154192176732</v>
       </c>
       <c r="O3" t="n">
-        <v>8.699898755806164</v>
+        <v>8.700088615742217</v>
       </c>
       <c r="P3" t="n">
-        <v>345.3922507585049</v>
+        <v>345.3915559820859</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19070,7 +19070,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-45.2584270697063,170.86272860477789</t>
+          <t>-45.258427056305614,170.86272855006115</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -19092,7 +19092,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-45.25839090381471,170.86258093529668</t>
+          <t>-45.258390911855166,170.86258096812668</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -19114,7 +19114,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-45.25844100909606,170.86278552116076</t>
+          <t>-45.25844100105565,170.8627854883307</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -19136,7 +19136,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-45.258439430497084,170.86277907552395</t>
+          <t>-45.25843943853749,170.86277910835403</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -19180,7 +19180,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-45.2584228967284,170.8627115659817</t>
+          <t>-45.25842289940854,170.86271157692508</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -19202,7 +19202,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-45.258392391299495,170.86258700884866</t>
+          <t>-45.258392385939196,170.862586986962</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -19224,7 +19224,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-45.258434241754976,170.86275788918894</t>
+          <t>-45.25843424979538,170.862757922019</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -19246,7 +19246,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-45.25843647430822,170.86276700500304</t>
+          <t>-45.25843646090755,170.86276695028627</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -19290,7 +19290,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-45.25839449253875,170.86259558842536</t>
+          <t>-45.25839447913798,170.86259553370866</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -19312,7 +19312,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-45.258417517683824,170.86268960268177</t>
+          <t>-45.2584175042831,170.86268954796503</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -19334,7 +19334,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-45.25842630586661,170.86272548592294</t>
+          <t>-45.258426319267286,170.86272554063967</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -19356,7 +19356,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-45.258454457994404,170.86284043493714</t>
+          <t>-45.25845444459376,170.86284038022035</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -19378,7 +19378,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-45.25842069097221,170.86270255960557</t>
+          <t>-45.258420688292055,170.8627025486622</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -19400,7 +19400,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-45.25840050411639,170.86262013433526</t>
+          <t>-45.25840049339578,170.8626200905619</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -19422,7 +19422,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-45.258420473880726,170.86270167319438</t>
+          <t>-45.258420481921156,170.8627017060244</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -19444,7 +19444,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-45.25842667840596,170.86272700704868</t>
+          <t>-45.25842667304569,170.86272698516197</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -19466,7 +19466,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-45.25840070512759,170.8626209550858</t>
+          <t>-45.258400699767286,170.86262093319914</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -19488,7 +19488,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-45.25842787642814,170.8627318987266</t>
+          <t>-45.2584278817884,170.8627319206133</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -19510,7 +19510,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-45.25843616073236,170.86276572463055</t>
+          <t>-45.258436166092636,170.86276574651728</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -19532,7 +19532,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-45.258424759425964,170.86271917160974</t>
+          <t>-45.258424756745825,170.86271916066642</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -19554,7 +19554,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-45.25844952387589,170.8628202882098</t>
+          <t>-45.258449521195764,170.86282027726642</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-45.25839907291647,170.8626142905916</t>
+          <t>-45.25839907827677,170.8626143124783</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -19598,7 +19598,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-45.2584015681356,170.8626244788415</t>
+          <t>-45.25840155473487,170.86262442412482</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -19620,7 +19620,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-45.25842414567387,170.86271666558264</t>
+          <t>-45.25842413763345,170.86271663275255</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -19642,7 +19642,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-45.258417914344946,170.86269122229717</t>
+          <t>-45.25841791702509,170.86269123324053</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -19686,7 +19686,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-45.258367484597834,170.86248531246196</t>
+          <t>-45.25836747387718,170.86248526868863</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -19708,7 +19708,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-45.25841003472103,170.86265904886056</t>
+          <t>-45.25841004544161,170.86265909263395</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -19730,7 +19730,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-45.25845187434995,170.86282988553683</t>
+          <t>-45.25845187971021,170.86282990742356</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -19752,7 +19752,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-45.25844048378981,170.86278337626288</t>
+          <t>-45.258440470389154,170.86278332154612</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -19774,7 +19774,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-45.25840202912122,170.86262636109615</t>
+          <t>-45.25840202644105,170.8626263501528</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-45.25840835694961,170.86265219832728</t>
+          <t>-45.25840836499006,170.86265223115734</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -19818,7 +19818,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-45.258370786556725,170.862498794642</t>
+          <t>-45.258370775836084,170.8624987508687</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -19840,7 +19840,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-45.25841578095105,170.86268251139302</t>
+          <t>-45.25841579435176,170.86268256610975</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -19862,7 +19862,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-45.25843063965073,170.86274318132237</t>
+          <t>-45.258430653051406,170.86274323603914</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -19884,7 +19884,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-45.258386615568476,170.86256342595945</t>
+          <t>-45.25838660752802,170.86256339312945</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -19906,7 +19906,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-45.25843245410377,170.86275058997217</t>
+          <t>-45.25843245142362,170.8627505790288</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -19928,7 +19928,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-45.2584590678141,170.86285925752114</t>
+          <t>-45.25845907317435,170.86285927940784</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -19968,7 +19968,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-45.25842691425823,170.86272797006356</t>
+          <t>-45.25842690889795,170.86272794817683</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -19990,7 +19990,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-45.25839988500184,170.86261760642367</t>
+          <t>-45.258399874281245,170.8626175626503</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -20012,7 +20012,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-45.25844680622302,170.8628091916434</t>
+          <t>-45.25844680890316,170.86280920258676</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -20034,7 +20034,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-45.258410101724664,170.8626593224442</t>
+          <t>-45.25841010440482,170.8626593333875</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-45.258430133104675,170.8627411130288</t>
+          <t>-45.25843012238412,170.86274106925535</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -20118,7 +20118,7 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-45.258392013397994,170.86258546583812</t>
+          <t>-45.258392002677375,170.86258542206477</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -20140,7 +20140,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-45.25842928618103,170.86273765492953</t>
+          <t>-45.25842929690157,170.86273769870294</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -20162,7 +20162,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-45.258389183156225,170.8625739096748</t>
+          <t>-45.25838917243561,170.86257386590142</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -20184,7 +20184,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-45.25840757702698,170.86264901381438</t>
+          <t>-45.258407568986556,170.86264898098435</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -20206,7 +20206,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-45.25841717730567,170.8626882128767</t>
+          <t>-45.25841717998582,170.86268822382004</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -20250,7 +20250,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-45.25842920577688,170.86273732662897</t>
+          <t>-45.25842920845701,170.86273733757233</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -20272,7 +20272,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-45.25845934654728,170.86286039563097</t>
+          <t>-45.2584593385069,170.8628603628009</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -20294,7 +20294,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-45.25843926968902,170.86277841892257</t>
+          <t>-45.25843926164861,170.86277838609251</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -20316,7 +20316,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-45.25844958819902,170.86282055085044</t>
+          <t>-45.258449580158626,170.86282051802033</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -20338,7 +20338,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-45.258436790564204,170.8627682963189</t>
+          <t>-45.25843678520393,170.86276827443223</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -20360,7 +20360,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-45.258429160214526,170.86273714059197</t>
+          <t>-45.25842914949396,170.8627370968186</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -20382,7 +20382,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-45.258387406214084,170.8625666542433</t>
+          <t>-45.25838740353392,170.86256664329997</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -20426,7 +20426,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-45.25838508251982,170.86255716637206</t>
+          <t>-45.25838507447936,170.86255713354205</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -20448,7 +20448,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-45.258417643650525,170.86269011701907</t>
+          <t>-45.25841765169097,170.86269014984913</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -20470,7 +20470,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-45.258426884776696,170.86272784968668</t>
+          <t>-45.25842687941642,170.8627278278</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -20492,7 +20492,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-45.258420682931785,170.86270252677554</t>
+          <t>-45.258420688292055,170.8627025486622</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -20558,7 +20558,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-45.25839265931476,170.8625881031824</t>
+          <t>-45.258392651274285,170.8625880703524</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -20580,7 +20580,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-45.25842318350344,170.86271273692012</t>
+          <t>-45.25842319422401,170.8627127806935</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -20602,7 +20602,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-45.258434316798784,170.86275819560285</t>
+          <t>-45.25843430875838,170.8627581627728</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -20624,7 +20624,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-45.25842864026766,170.86273501758177</t>
+          <t>-45.258428648308076,170.86273505041183</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -20646,7 +20646,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-45.25840466102681,170.86263710745757</t>
+          <t>-45.258404650306225,170.8626370636842</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -20668,7 +20668,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-45.25841926513671,170.8626967377444</t>
+          <t>-45.25841927317716,170.86269677057442</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -20690,7 +20690,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-45.25844169253014,170.8627883117167</t>
+          <t>-45.25844167912947,170.86278825699992</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -20712,7 +20712,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-45.2583897969114,170.86257641569875</t>
+          <t>-45.25838979155109,170.86257639381208</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -20734,7 +20734,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-45.258392613752164,170.86258791714565</t>
+          <t>-45.258392621792616,170.86258794997568</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -20756,7 +20756,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-45.25844217495416,170.86279028152094</t>
+          <t>-45.25844218031443,170.86279030340765</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -20778,7 +20778,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-45.25841441139758,170.8626769193431</t>
+          <t>-45.25841440871745,170.86267690839975</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -20800,7 +20800,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-45.25841382444602,170.86267452275035</t>
+          <t>-45.25841381908573,170.86267450086368</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -20822,7 +20822,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-45.258426683766245,170.86272702893535</t>
+          <t>-45.25842667304569,170.86272698516197</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -20844,7 +20844,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-45.25842211680739,170.86270838146712</t>
+          <t>-45.25842210340668,170.86270832675038</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -20866,7 +20866,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-45.25847471437697,170.86292314489648</t>
+          <t>-45.258474727777575,170.86292319961336</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -20924,7 +20924,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-45.2584149367058,170.86267906423893</t>
+          <t>-45.25841493938594,170.86267907518229</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -20946,7 +20946,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-45.25840363721029,170.86263292710095</t>
+          <t>-45.25840364793089,170.86263297087433</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-45.25843009826287,170.86274097076517</t>
+          <t>-45.25843009290259,170.8627409488785</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -20990,7 +20990,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-45.258424547694894,170.86271830708512</t>
+          <t>-45.25842455037505,170.86271831802847</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -21012,7 +21012,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-45.258424201956814,170.86271689539296</t>
+          <t>-45.25842419659654,170.8627168735063</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -21034,7 +21034,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-45.25841708082053,170.86268781891619</t>
+          <t>-45.25841709154109,170.86268786268957</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -21056,7 +21056,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-45.25841096741167,170.86266285714441</t>
+          <t>-45.25841095937123,170.86266282431438</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -21078,7 +21078,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-45.2584203693552,170.8627012464038</t>
+          <t>-45.258420363994915,170.86270122451708</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -21096,7 +21096,7 @@
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-45.25838849703685,170.86257110818082</t>
+          <t>-45.25838849435669,170.8625710972375</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -21118,7 +21118,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-45.2584094182875,170.86265653189145</t>
+          <t>-45.25840942632793,170.86265656472145</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -21158,7 +21158,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-45.25843275427911,170.86275181562772</t>
+          <t>-45.258432746238704,170.8627517827977</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -21180,7 +21180,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-45.25837057482401,170.86249793011905</t>
+          <t>-45.2583705694637,170.86249790823237</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -21202,7 +21202,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-45.25842654707915,170.86272647082447</t>
+          <t>-45.25842655511956,170.86272650365456</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -21224,7 +21224,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-45.25842760305396,170.86273078250477</t>
+          <t>-45.25842761645467,170.8627308372215</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -21246,7 +21246,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-45.25840371761473,170.8626332554012</t>
+          <t>-45.25840370689415,170.86263321162784</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -21268,7 +21268,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-45.258412889075615,170.86267070352278</t>
+          <t>-45.25841287567489,170.86267064880604</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -21290,7 +21290,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-45.25843249162568,170.8627507431791</t>
+          <t>-45.25843248090515,170.8627506994057</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -21312,7 +21312,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-45.25842486127128,170.86271958745704</t>
+          <t>-45.25842487467198,170.8627196421738</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -21334,7 +21334,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-45.258385760599076,170.86255993503568</t>
+          <t>-45.25838575255861,170.86255990220565</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -21356,7 +21356,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-45.25842051408285,170.8627018373446</t>
+          <t>-45.258420511402704,170.86270182640123</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -21418,7 +21418,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-45.25841433635355,170.8626766129294</t>
+          <t>-45.25841434975428,170.86267666764613</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -21480,7 +21480,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-45.25842196671949,170.86270776863955</t>
+          <t>-45.25842195599893,170.86270772486617</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -21502,7 +21502,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-45.25838252833133,170.86254673737494</t>
+          <t>-45.258382539051965,170.86254678114827</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -21520,7 +21520,7 @@
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-45.258449826730626,170.86282152480945</t>
+          <t>-45.258449816010106,170.862821481036</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -21542,7 +21542,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-45.2584356836682,170.86276377671345</t>
+          <t>-45.25843569438873,170.86276382048686</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -21564,7 +21564,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-45.25842628174534,170.86272538743276</t>
+          <t>-45.25842628978576,170.86272542026282</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -21604,7 +21604,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-45.25842223741373,170.8627088739178</t>
+          <t>-45.25842225081445,170.86270892863456</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -21626,7 +21626,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-45.25842548842402,170.86272214820102</t>
+          <t>-45.258425493784294,170.8627221700877</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -21648,7 +21648,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-45.25842131544516,170.8627051094058</t>
+          <t>-45.25842130740474,170.86270507657576</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -21670,7 +21670,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-45.25839608186852,170.86260207782502</t>
+          <t>-45.258396071147914,170.86260203405163</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -21688,7 +21688,7 @@
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-45.25851253345907,170.86307756689519</t>
+          <t>-45.258512522738656,170.86307752312163</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -21710,7 +21710,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-45.258377687967396,170.86252697371677</t>
+          <t>-45.25837767456661,170.8625269190001</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -21754,7 +21754,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-45.25838337794083,170.86255020641164</t>
+          <t>-45.258383364540045,170.862550151695</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -21776,7 +21776,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-45.258428771594446,170.862735553806</t>
+          <t>-45.25842876623417,170.86273553191927</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -21798,7 +21798,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-45.2584081827401,170.86265148700997</t>
+          <t>-45.2584081881004,170.86265150889668</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -21820,7 +21820,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-45.25837064182805,170.86249820370227</t>
+          <t>-45.258370628427244,170.86249814898562</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -21842,7 +21842,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-45.2584213047246,170.8627050656324</t>
+          <t>-45.25842130740474,170.86270507657576</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -21860,7 +21860,7 @@
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-45.25840656125133,170.86264486628735</t>
+          <t>-45.25840656661162,170.86264488817406</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -21882,7 +21882,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-45.25841701381695,170.8626875453325</t>
+          <t>-45.25841700309638,170.86268750155912</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -21922,7 +21922,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-45.25835322076063,170.86242707208905</t>
+          <t>-45.258353234161476,170.86242712680564</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -21944,7 +21944,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-45.25841020625036,170.8626597492346</t>
+          <t>-45.25841019284962,170.8626596945179</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -21966,7 +21966,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-45.25841699505595,170.86268746872906</t>
+          <t>-45.25841700309638,170.86268750155912</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -21988,7 +21988,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-45.258391798985784,170.86258459037117</t>
+          <t>-45.25839179630562,170.86258457942782</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -22010,7 +22010,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-45.25838543630032,170.8625586108922</t>
+          <t>-45.25838542825984,170.8625585780622</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -22032,7 +22032,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-45.258400815013694,170.86262140376274</t>
+          <t>-45.25840081769384,170.8626214147061</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -22054,7 +22054,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-45.25840954961463,170.86265706811528</t>
+          <t>-45.25840954425435,170.8626570462286</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -22076,7 +22076,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-45.258383710280164,170.86255156338504</t>
+          <t>-45.25838371832062,170.862551596215</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -22098,7 +22098,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-45.258450751375555,170.86282530026872</t>
+          <t>-45.25845075941595,170.8628253330988</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-45.258444051047235,170.8627979418711</t>
+          <t>-45.258444037646576,170.8627978871543</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -22142,7 +22142,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-45.25842495239604,170.86271995953095</t>
+          <t>-45.2584249631166,170.86272000330436</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -22164,7 +22164,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-45.25842236338037,170.86270938825524</t>
+          <t>-45.258422368740646,170.86270941014192</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -22200,7 +22200,7 @@
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-45.25844685178526,170.8628093776805</t>
+          <t>-45.25844683838461,170.8628093229637</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -22222,7 +22222,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-45.25839197587585,170.8625853126314</t>
+          <t>-45.2583919731957,170.86258530168809</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -22266,7 +22266,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-45.25841376816299,170.8626742929401</t>
+          <t>-45.25841376012257,170.86267426011005</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -22288,7 +22288,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-45.2584234783189,170.86271394068854</t>
+          <t>-45.25842348903947,170.86271398446195</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -22310,7 +22310,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-45.258435643466164,170.86276361256316</t>
+          <t>-45.25843563542575,170.86276357973307</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -22328,7 +22328,7 @@
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-45.25840052823772,170.86262023282535</t>
+          <t>-45.25840052287743,170.86262021093864</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -22350,7 +22350,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-45.25841508411371,170.86267966612297</t>
+          <t>-45.25841508679385,170.86267967706632</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -22372,7 +22372,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-45.258427964872716,170.86273225985718</t>
+          <t>-45.258427970233,170.8627322817439</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -22394,7 +22394,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-45.25840392934645,170.8626341199252</t>
+          <t>-45.25840394274718,170.8626341746419</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -22416,7 +22416,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-45.25837090984413,170.86249929803515</t>
+          <t>-45.258370923244925,170.86249935275177</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -22474,7 +22474,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-45.25840662825501,170.86264513987092</t>
+          <t>-45.25840662557486,170.8626451289276</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -22496,7 +22496,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-45.25840244454427,170.86262805731403</t>
+          <t>-45.25840243918396,170.86262803542732</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -22518,7 +22518,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-45.258415033190985,170.86267945819938</t>
+          <t>-45.258415027830694,170.86267943631267</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-45.25838564535241,170.86255946447227</t>
+          <t>-45.258385634631786,170.86255942069894</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -22562,7 +22562,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-45.25844304331731,170.86279382716867</t>
+          <t>-45.258443035276905,170.8627937943386</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -22584,7 +22584,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-45.25838802532972,170.86256918215378</t>
+          <t>-45.25838802264956,170.86256917121042</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -22606,7 +22606,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-45.258390914535326,170.86258097907003</t>
+          <t>-45.258390911855166,170.86258096812668</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -22624,7 +22624,7 @@
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-45.25841970468002,170.8626985324534</t>
+          <t>-45.25841971540059,170.86269857622682</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -22646,7 +22646,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-45.25839614619214,170.86260234046514</t>
+          <t>-45.2583961595929,170.86260239518182</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -22668,7 +22668,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-45.258413502828716,170.8626732095489</t>
+          <t>-45.25841349478827,170.86267317671883</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -22690,7 +22690,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-45.25841507071299,170.86267961140624</t>
+          <t>-45.25841505731227,170.8626795566895</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -22712,7 +22712,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-45.25839776500318,170.8626089502419</t>
+          <t>-45.25839775160242,170.8626088955252</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -22734,7 +22734,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-45.25836891312407,170.86249114525558</t>
+          <t>-45.25836891848439,170.8624911671422</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -22752,7 +22752,7 @@
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-45.25845382012376,170.86283783041708</t>
+          <t>-45.25845382548403,170.8628378523038</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -22774,7 +22774,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-45.25848341136358,170.86295865613744</t>
+          <t>-45.25848342476417,170.86295871085431</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -22796,7 +22796,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-45.25838209146584,170.86254495361163</t>
+          <t>-45.25838209682616,170.8625449754983</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -22818,7 +22818,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-45.25839533678647,170.8625990355769</t>
+          <t>-45.258395334106325,170.86259902463357</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-45.25842190775638,170.8627075278859</t>
+          <t>-45.25842189703582,170.8627074841125</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -22862,7 +22862,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-45.25840006725202,170.86261835057078</t>
+          <t>-45.25840008065277,170.8626184052875</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -22884,7 +22884,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-45.25838747857825,170.86256694971334</t>
+          <t>-45.25838749197902,170.86256700443005</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -22928,7 +22928,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-45.2584326015113,170.8627511918566</t>
+          <t>-45.25843259883117,170.86275118091325</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -22950,7 +22950,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-45.258394203082354,170.86259440654484</t>
+          <t>-45.258394213802966,170.8625944503182</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -22972,7 +22972,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-45.25848235003697,170.86295432256165</t>
+          <t>-45.25848236343757,170.86295437727853</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -22994,7 +22994,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-45.2583931846246,170.86259024807651</t>
+          <t>-45.25839318194444,170.8625902371332</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -23016,7 +23016,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-45.25838900626608,170.86257318741463</t>
+          <t>-45.25838899554546,170.86257314364127</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -23038,7 +23038,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-45.258405722365254,170.8626414410211</t>
+          <t>-45.25840571164466,170.86264139724773</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -23060,7 +23060,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-45.25840795492765,170.86265055682577</t>
+          <t>-45.2584079522475,170.86265054588245</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -23082,7 +23082,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-45.25838316352836,170.86254933094497</t>
+          <t>-45.25838315816804,170.8625493090583</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -23104,7 +23104,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-45.258406341479265,170.86264396893327</t>
+          <t>-45.25840633075868,170.8626439251599</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -23126,7 +23126,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-45.25836665374752,170.86248192003052</t>
+          <t>-45.2583666483872,170.86248189814387</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -23170,7 +23170,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-45.25842907713022,170.8627368013481</t>
+          <t>-45.25842909053092,170.86273685606486</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -23192,7 +23192,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-45.25840908862954,170.86265518586015</t>
+          <t>-45.258409102030264,170.86265524057686</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -23214,7 +23214,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-45.25841831636634,170.86269286379928</t>
+          <t>-45.258418329767046,170.86269291851602</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -23236,7 +23236,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-45.25842723051464,170.86272926137897</t>
+          <t>-45.25842723319479,170.8627292723223</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -23258,7 +23258,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-45.258385964290866,170.8625607667291</t>
+          <t>-45.258385958930546,170.86256074484243</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -23276,7 +23276,7 @@
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-45.258432730157885,170.86275171713754</t>
+          <t>-45.25843271675719,170.86275166242078</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -23298,7 +23298,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-45.25848120830668,170.8629496606849</t>
+          <t>-45.25848121366691,170.86294968257167</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -23320,7 +23320,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-45.25840816665922,170.8626514213499</t>
+          <t>-45.25840815861878,170.86265138851988</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -23342,7 +23342,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-45.258420916104086,170.86270347884687</t>
+          <t>-45.258420924144524,170.8627035116769</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -23386,7 +23386,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-45.258424075990234,170.86271638105552</t>
+          <t>-45.258424078670366,170.86271639199887</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -23408,7 +23408,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-45.25839403155263,170.86259370617122</t>
+          <t>-45.25839403691294,170.8625937280579</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -23430,7 +23430,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-45.258435780153086,170.8627641706742</t>
+          <t>-45.25843578283322,170.8627641816176</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -23452,7 +23452,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-45.25846540631118,170.86288513857923</t>
+          <t>-45.25846541167142,170.86288516046596</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -23474,7 +23474,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-45.25841515915773,170.86267997253665</t>
+          <t>-45.25841514575702,170.86267991781992</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -23496,7 +23496,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-45.258431234641286,170.86274561074663</t>
+          <t>-45.258431242681695,170.86274564357666</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -23518,7 +23518,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-45.25852016907761,170.86310874460315</t>
+          <t>-45.25852015835721,170.8631087008296</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -23540,7 +23540,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-45.25842493899535,170.8627199048142</t>
+          <t>-45.25842493363507,170.86271988292754</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -23562,7 +23562,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-45.25836655726168,170.86248152607075</t>
+          <t>-45.25836655994185,170.86248153701408</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -23584,7 +23584,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-45.25839938381386,170.86261556001907</t>
+          <t>-45.25839937309325,170.86261551624568</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -23606,7 +23606,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-45.25840141804725,170.86262386601442</t>
+          <t>-45.25840140732666,170.86262382224106</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -23628,7 +23628,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-45.258389469932666,170.86257508061172</t>
+          <t>-45.25838946725251,170.8625750696684</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -23650,7 +23650,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-45.258407944207065,170.86265051305242</t>
+          <t>-45.2584079522475,170.86265054588245</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -23672,7 +23672,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-45.2584351690821,170.86276167558944</t>
+          <t>-45.25843516372182,170.86276165370273</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -23694,7 +23694,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-45.258428101559794,170.8627328179681</t>
+          <t>-45.258428088159086,170.86273276325136</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -23716,7 +23716,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-45.258410048121746,170.8626591035773</t>
+          <t>-45.25841004544161,170.86265909263395</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -23738,7 +23738,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-45.25842730823868,170.86272957873615</t>
+          <t>-45.258427321639374,170.8627296334529</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -23760,7 +23760,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>-45.2583791700947,170.86253302537918</t>
+          <t>-45.25837917813517,170.86253305820915</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -23782,7 +23782,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-45.25838848095592,170.8625710425208</t>
+          <t>-45.25838849435669,170.8625710972375</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -23804,7 +23804,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-45.25839529390406,170.86259886048347</t>
+          <t>-45.258395304624656,170.86259890425683</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -23848,7 +23848,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-45.25843829412002,170.86277443554116</t>
+          <t>-45.25843828875974,170.86277441365442</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -23870,7 +23870,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-45.25838031720204,170.86253770912535</t>
+          <t>-45.258380327922666,170.86253775289867</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -23892,7 +23892,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-45.258413157090075,170.8626717978573</t>
+          <t>-45.2584131704908,170.86267185257404</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -23914,7 +23914,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-45.258474692936,170.86292305734955</t>
+          <t>-45.25847469829625,170.86292307923628</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -23936,7 +23936,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-45.258406266435145,170.86264366251964</t>
+          <t>-45.258406271795444,170.86264368440635</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -23958,7 +23958,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-45.25836940091345,170.86249313694125</t>
+          <t>-45.2583693901928,170.86249309316793</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -23980,7 +23980,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-45.258409453129396,170.8626566741549</t>
+          <t>-45.258409455809534,170.86265668509824</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -23998,7 +23998,7 @@
       <c r="B230" t="inlineStr"/>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-45.2584282811291,170.86273355117265</t>
+          <t>-45.25842829452978,170.86273360588942</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -24020,7 +24020,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-45.25838074602718,170.86253946005854</t>
+          <t>-45.25838074066685,170.8625394381719</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -24042,7 +24042,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-45.258398137544084,170.86261047136608</t>
+          <t>-45.25839813486392,170.86261046042273</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -24064,7 +24064,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-45.25842008526018,170.86270008640884</t>
+          <t>-45.25842009866088,170.8627001411256</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -24086,7 +24086,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-45.25841808587408,170.8626919226714</t>
+          <t>-45.2584180939145,170.86269195550145</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -24108,7 +24108,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>-45.258363070369484,170.86246728880332</t>
+          <t>-45.25836308109013,170.8624673325766</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -24130,7 +24130,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>-45.258404837916565,170.86263782971815</t>
+          <t>-45.258404827195974,170.86263778594477</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -24152,7 +24152,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-45.25842539193898,170.8627217542404</t>
+          <t>-45.25842540533968,170.86272180895713</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -24174,7 +24174,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-45.25840857404147,170.86265308473813</t>
+          <t>-45.25840857136132,170.86265307379477</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -24196,7 +24196,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>-45.25842333627147,170.86271336069103</t>
+          <t>-45.25842334163174,170.86271338257774</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -24240,7 +24240,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-45.25840918779494,170.86265559076386</t>
+          <t>-45.258409190475085,170.86265560170722</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -24284,7 +24284,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>-45.25840977206675,170.86265797641283</t>
+          <t>-45.258409780107186,170.8626580092429</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -24306,7 +24306,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>-45.258414389956435,170.86267683179634</t>
+          <t>-45.25841437923586,170.86267678802292</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>-45.258398102702124,170.86261032910267</t>
+          <t>-45.258398105382284,170.862610340046</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -24350,7 +24350,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>-45.258415740748895,170.8626823472428</t>
+          <t>-45.25841573538861,170.8626823253561</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -24372,7 +24372,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>-45.25842933442351,170.86273785190986</t>
+          <t>-45.25842932638309,170.86273781907983</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -24394,7 +24394,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>-45.258357251731496,170.862443530846</t>
+          <t>-45.25835724369099,170.86244349801603</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -24416,7 +24416,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>-45.25839121471247,170.8625822047237</t>
+          <t>-45.258391206672,170.86258217189373</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -24438,7 +24438,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>-45.25840655053074,170.862644822514</t>
+          <t>-45.258406537130014,170.8626447677973</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -24460,7 +24460,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>-45.258410447463454,170.8626607341356</t>
+          <t>-45.258410458184045,170.86266077790896</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -24504,7 +24504,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>-45.25841794114637,170.86269133173064</t>
+          <t>-45.25841794650666,170.86269135361735</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -24526,7 +24526,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>-45.25840906718837,170.86265509831338</t>
+          <t>-45.25840907254865,170.86265512020006</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -24566,7 +24566,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>-45.25838800120834,170.86256908366374</t>
+          <t>-45.25838799316787,170.86256905083374</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -24588,7 +24588,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>-45.25839742998438,170.86260758232447</t>
+          <t>-45.25839742730422,170.86260757138118</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -24610,7 +24610,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>-45.25837255278248,170.8625060062958</t>
+          <t>-45.258372544741995,170.86250597346583</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -24650,7 +24650,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>-45.258437195264634,170.8627699487655</t>
+          <t>-45.25843719794478,170.86276995970886</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -24672,7 +24672,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>-45.25841759808811,170.86268993098219</t>
+          <t>-45.25841759272782,170.86268990909548</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -24694,7 +24694,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>-45.2584050308872,170.86263861763877</t>
+          <t>-45.25840503356734,170.86263862858212</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -24716,7 +24716,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>-45.25839939989475,170.8626156256791</t>
+          <t>-45.25839940257491,170.86261563662245</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -24738,7 +24738,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>-45.2584366538773,170.86276773820782</t>
+          <t>-45.258436667277984,170.86276779292461</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -24760,7 +24760,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>-45.25842657388054,170.862726580258</t>
+          <t>-45.2584265846011,170.86272662403138</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -24782,7 +24782,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>-45.2584223204981,170.86270921316165</t>
+          <t>-45.258422309777536,170.86270916938824</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -24804,7 +24804,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>-45.25843399518242,170.8627568824004</t>
+          <t>-45.25843398446187,170.86275683862698</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -24826,7 +24826,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>-45.258435600583994,170.86276343746945</t>
+          <t>-45.25843560594426,170.8627634593562</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -24848,7 +24848,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>-45.258410176768756,170.8626596288578</t>
+          <t>-45.25841016336802,170.8626595741411</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -24870,7 +24870,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>-45.25841263714203,170.86266967484832</t>
+          <t>-45.25841263982216,170.86266968579167</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -24892,7 +24892,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>-45.258426037852644,170.86272439158785</t>
+          <t>-45.25842602445195,170.8627243368711</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -24914,7 +24914,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>-45.25839299969409,170.86258949298625</t>
+          <t>-45.2583930050544,170.86258951487292</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -24936,7 +24936,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>-45.25844177561429,170.86278865096077</t>
+          <t>-45.25844176757387,170.86278861813068</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -24958,7 +24958,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>-45.25848394470694,170.86296083386875</t>
+          <t>-45.2584839554274,170.86296087764225</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -24980,7 +24980,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>-45.258475480891484,170.86292627470033</t>
+          <t>-45.25847549429209,170.86292632941718</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -25002,7 +25002,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>-45.25844504805651,170.86280201280022</t>
+          <t>-45.25844504001611,170.86280197997016</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -25024,7 +25024,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>-45.258405985019685,170.86264251346867</t>
+          <t>-45.25840597697925,170.86264248063864</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -25046,7 +25046,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>-45.25841448912177,170.8626772367001</t>
+          <t>-45.2584144971622,170.86267726953017</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -25086,7 +25086,7 @@
       <c r="B280" t="inlineStr"/>
       <c r="C280" t="inlineStr">
         <is>
-          <t>-45.25842144409195,170.86270563468653</t>
+          <t>-45.25842145481253,170.86270567845995</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -25130,7 +25130,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>-45.258431633981765,170.86274724130618</t>
+          <t>-45.25843162594138,170.8627472084761</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -25152,7 +25152,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>-45.25838872484993,170.86257203836436</t>
+          <t>-45.25838873021023,170.86257206025104</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -25174,7 +25174,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>-45.25843002857929,170.86274068623803</t>
+          <t>-45.258430033939575,170.86274070812476</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -25196,7 +25196,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>-45.25842441636804,170.86271777086094</t>
+          <t>-45.258424402967336,170.8627177161442</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -25218,7 +25218,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>-45.25840270183852,170.86262910787477</t>
+          <t>-45.258402704518666,170.86262911881812</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -25240,7 +25240,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>-45.258409351283845,170.86265625830782</t>
+          <t>-45.258409337883116,170.8626562035911</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -25262,7 +25262,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>-45.25839299433379,170.86258947109954</t>
+          <t>-45.2583930050544,170.86258951487292</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -25284,7 +25284,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>-45.25837070079158,170.86249844445547</t>
+          <t>-45.25837068739078,170.86249838973885</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -25306,7 +25306,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>-45.25841908288705,170.8626959935967</t>
+          <t>-45.25841909628777,170.86269604831344</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -25346,7 +25346,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>-45.2584357292305,170.86276396275048</t>
+          <t>-45.25843572387024,170.86276394086377</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -25390,7 +25390,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>-45.25839536626813,170.86259915595363</t>
+          <t>-45.25839536358799,170.86259914501028</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -25412,7 +25412,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>-45.258381083726945,170.86254083891845</t>
+          <t>-45.25838109444757,170.86254088269177</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -25434,7 +25434,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>-45.25842013082259,170.86270027244578</t>
+          <t>-45.25842012814244,170.86270026150243</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -25456,7 +25456,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>-45.258430575327424,170.8627429186819</t>
+          <t>-45.25843056460687,170.8627428749085</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -25478,7 +25478,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>-45.25841905072535,170.86269586227655</t>
+          <t>-45.25841903732464,170.86269580755982</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -25500,7 +25500,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>-45.258411766094945,170.86266611826116</t>
+          <t>-45.25841175537436,170.86266607448778</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -25522,7 +25522,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>-45.25842493095493,170.86271987198415</t>
+          <t>-45.25842493363507,170.86271988292754</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -25566,7 +25566,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>-45.25840994895637,170.86265869867356</t>
+          <t>-45.2584099569968,170.8626587315036</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -25588,7 +25588,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>-45.258445200824035,170.86280263657164</t>
+          <t>-45.25844518742338,170.86280258185488</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -25610,7 +25610,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>-45.25841187598088,170.8626665669383</t>
+          <t>-45.25841187330075,170.86266655599493</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -25632,7 +25632,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>-45.25842323174598,170.86271293390038</t>
+          <t>-45.25842322370555,170.86271290107035</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -25654,7 +25654,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>-45.25841865674443,170.86269425360442</t>
+          <t>-45.258418654064286,170.8626942426611</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -25676,7 +25676,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>-45.25841059755161,170.86266134696288</t>
+          <t>-45.25841060559204,170.8626613797929</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -25698,7 +25698,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>-45.25843597848312,170.86276498048244</t>
+          <t>-45.258435989203676,170.86276502425588</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -25720,7 +25720,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>-45.25842694105961,170.86272807949706</t>
+          <t>-45.258426938379486,170.8627280685537</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -25742,7 +25742,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>-45.25842762717522,170.86273088099495</t>
+          <t>-45.25842761645467,170.8627308372215</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -25764,7 +25764,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>-45.25839229481402,170.86258661488853</t>
+          <t>-45.25839229749417,170.86258662583188</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -25786,7 +25786,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>-45.258391455926215,170.86258318962405</t>
+          <t>-45.25839144252546,170.86258313490737</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -25808,7 +25808,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>-45.25843262027226,170.86275126846007</t>
+          <t>-45.258432628312676,170.86275130129013</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -25852,7 +25852,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>-45.258445667167024,170.862804540716</t>
+          <t>-45.25844565912662,170.8628045078859</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -25874,7 +25874,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>-45.25837677403341,170.8625232420408</t>
+          <t>-45.25837676063261,170.86252318732417</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -25896,7 +25896,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>-45.25841764901081,170.86269013890578</t>
+          <t>-45.25841765169097,170.86269014984913</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -25940,7 +25940,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>-45.258378449132266,170.8625300816229</t>
+          <t>-45.25837844109179,170.8625300487929</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -25962,7 +25962,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>-45.25843209228525,170.8627491126195</t>
+          <t>-45.25843209764552,170.86274913450623</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -25984,7 +25984,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>-45.25839674654594,170.86260479177304</t>
+          <t>-45.258396749226094,170.8626048027164</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -26006,7 +26006,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>-45.25839817506619,170.86261062457285</t>
+          <t>-45.258398164345586,170.8626105807995</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -26028,7 +26028,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>-45.25837536426989,170.86251748584885</t>
+          <t>-45.25837537499053,170.86251752962218</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -26050,7 +26050,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>-45.25842624422338,170.86272523422585</t>
+          <t>-45.25842623082269,170.8627251795091</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -26072,7 +26072,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>-45.25842997229638,170.86274045642764</t>
+          <t>-45.25842997497653,170.862740467371</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -26090,7 +26090,7 @@
       <c r="B326" t="inlineStr"/>
       <c r="C326" t="inlineStr">
         <is>
-          <t>-45.25843285612431,170.86275223147516</t>
+          <t>-45.25843286416472,170.86275226430521</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -26112,7 +26112,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>-45.2583982876325,170.8626110841931</t>
+          <t>-45.258398282272196,170.8626110623064</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -26134,7 +26134,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>-45.25839677334745,170.86260490120642</t>
+          <t>-45.25839677870776,170.8626049230931</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -26156,7 +26156,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>-45.25840699811529,170.86264665005226</t>
+          <t>-45.25840700883588,170.86264669382564</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -26178,7 +26178,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>-45.258387725152446,170.8625679565002</t>
+          <t>-45.2583877278326,170.8625679674435</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -26200,7 +26200,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>-45.25839851276512,170.86261200343364</t>
+          <t>-45.25839851812542,170.8626120253203</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -26222,7 +26222,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>-45.25843571850997,170.86276391897707</t>
+          <t>-45.25843572387024,170.86276394086377</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -26262,7 +26262,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>-45.258431009509735,170.862744691505</t>
+          <t>-45.258431006829596,170.86274468056166</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -26284,7 +26284,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>-45.258445734170316,170.86280481429995</t>
+          <t>-45.25844574757098,170.86280486901674</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -26306,7 +26306,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>-45.258424735304715,170.8627190731196</t>
+          <t>-45.2584247272643,170.86271904028956</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -26328,7 +26328,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>-45.2583445825752,170.8623918017689</t>
+          <t>-45.25834459597605,170.8623918564855</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -26350,7 +26350,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>-45.25834081961424,170.86237643735117</t>
+          <t>-45.25834082229441,170.86237644829447</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -26372,7 +26372,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>-45.258415464694124,170.86268122007812</t>
+          <t>-45.258415470054395,170.86268124196482</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -26394,7 +26394,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>-45.258434204233055,170.862757735982</t>
+          <t>-45.25843419083237,170.8627576812652</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -26416,7 +26416,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>-45.25840241774277,170.8626279478806</t>
+          <t>-45.25840240970232,170.86262791505058</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -26456,7 +26456,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>-45.25841879879197,170.86269483360186</t>
+          <t>-45.258418801472125,170.8626948445452</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -26478,7 +26478,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>-45.2584013162016,170.86262345016746</t>
+          <t>-45.25840131888174,170.86262346111081</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -26500,7 +26500,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>-45.25840132692219,170.86262349394082</t>
+          <t>-45.25840131888174,170.86262346111081</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -26522,7 +26522,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>-45.25839485971952,170.86259708766266</t>
+          <t>-45.25839486239966,170.86259709860602</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -26566,7 +26566,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>-45.25838989339693,170.86257680965886</t>
+          <t>-45.258389879996166,170.86257675494218</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -26588,7 +26588,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>-45.25842604053278,170.86272440253123</t>
+          <t>-45.25842605393348,170.86272445724796</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -26610,7 +26610,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>-45.25842851966142,170.86273452513092</t>
+          <t>-45.258428530381984,170.86273456890436</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -26632,7 +26632,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>-45.25841073155889,170.8626618941301</t>
+          <t>-45.25841072351844,170.86266186130007</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -26654,7 +26654,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>-45.258432247733204,170.862749747334</t>
+          <t>-45.25843224505308,170.86274973639064</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -26676,7 +26676,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>-45.25837245093639,170.8625055904493</t>
+          <t>-45.25837245629671,170.86250561233595</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -26742,7 +26742,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>-45.25839411999763,170.8625940673014</t>
+          <t>-45.25839412535794,170.86259408918806</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -26764,7 +26764,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>-45.258421722826654,170.8627067727948</t>
+          <t>-45.2584217201465,170.86270676185146</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -26786,7 +26786,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>-45.258431489254356,170.86274665036512</t>
+          <t>-45.2584314785338,170.8627466065917</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -26808,7 +26808,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>-45.25840576256746,170.86264160517123</t>
+          <t>-45.25840577060791,170.86264163800126</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -26830,7 +26830,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>-45.258399129199624,170.86261452040176</t>
+          <t>-45.25839913724006,170.86261455323177</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -26888,7 +26888,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>-45.258442335762155,170.86279093812237</t>
+          <t>-45.25844232772176,170.8627909052923</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -26910,7 +26910,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>-45.25843898559476,170.86277725892688</t>
+          <t>-45.2584389963153,170.8627773027003</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -26932,7 +26932,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>-45.25842154861746,170.86270606147713</t>
+          <t>-45.25842154325718,170.86270603959045</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -26954,7 +26954,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>-45.25841717194538,170.86268819098999</t>
+          <t>-45.25841717998582,170.86268822382004</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -26976,7 +26976,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>-45.25840493440189,170.86263822367843</t>
+          <t>-45.25840494512247,170.86263826745184</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -26998,7 +26998,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>-45.258395028569055,170.862597777093</t>
+          <t>-45.25839503928967,170.86259782086634</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -27020,7 +27020,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>-45.25841252993624,170.8626692371145</t>
+          <t>-45.2584125218958,170.86266920428446</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -27042,7 +27042,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>-45.25847884176181,170.86293999768742</t>
+          <t>-45.2584788551624,170.86294005240427</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -27064,7 +27064,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>-45.258411061216755,170.86266324016148</t>
+          <t>-45.25841104781603,170.86266318544477</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -27086,7 +27086,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>-45.25838811913511,170.8625695651705</t>
+          <t>-45.25838811109465,170.8625695323405</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -27108,7 +27108,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>-45.25838215310945,170.8625452053083</t>
+          <t>-45.258382155789604,170.86254521625165</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -27130,7 +27130,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>-45.25839357056651,170.86259182391714</t>
+          <t>-45.258393565206184,170.86259180203047</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -27152,7 +27152,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>-45.25841895424023,170.86269546831602</t>
+          <t>-45.258418948879935,170.8626954464293</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -27174,7 +27174,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>-45.25840083377474,170.86262148036616</t>
+          <t>-45.2584008471755,170.86262153508284</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -27218,7 +27218,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>-45.258424081350505,170.86271640294223</t>
+          <t>-45.258424078670366,170.86271639199887</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -27240,7 +27240,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>-45.25837455218164,170.86251417001978</t>
+          <t>-45.25837454950148,170.86251415907645</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -27262,7 +27262,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>-45.25841162136711,170.86266552732053</t>
+          <t>-45.25841160796638,170.8626654726038</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -27284,7 +27284,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>-45.2584076011483,170.86264911230447</t>
+          <t>-45.25840759846815,170.86264910136111</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -27306,7 +27306,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>-45.258458681875815,170.86285768167676</t>
+          <t>-45.258458689916196,170.86285771450684</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -27328,7 +27328,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>-45.25844229019988,170.86279075208532</t>
+          <t>-45.258442298240304,170.86279078491538</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -27368,7 +27368,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>-45.2583934874818,170.86259148467366</t>
+          <t>-45.25839347676118,170.86259144090033</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -27390,7 +27390,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>-45.25840938612574,170.8626564005713</t>
+          <t>-45.258409396846325,170.86265644434468</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -27412,7 +27412,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>-45.25840172626439,170.8626251244986</t>
+          <t>-45.25840173162468,170.86262514638528</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -27434,7 +27434,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>-45.258405398067424,170.86264011687666</t>
+          <t>-45.258405387346826,170.8626400731033</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -27478,7 +27478,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>-45.25838769567075,170.8625678361235</t>
+          <t>-45.2583876983509,170.86256784706683</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -27500,7 +27500,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>-45.25841690929138,170.862687118542</t>
+          <t>-45.25841691465166,170.86268714042868</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -27522,7 +27522,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>-45.25842669984709,170.86272709459547</t>
+          <t>-45.258426702527224,170.86272710553882</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -27544,7 +27544,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>-45.258435005593796,170.86276100804483</t>
+          <t>-45.25843501631434,170.86276105181824</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -27566,7 +27566,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>-45.25844112970208,170.86278601361178</t>
+          <t>-45.258441118981544,170.86278596983837</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -27588,7 +27588,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>-45.258393047936835,170.8625896899663</t>
+          <t>-45.25839303453606,170.86258963524963</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -27610,7 +27610,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>-45.258430221549226,170.86274147415938</t>
+          <t>-45.25843021082868,170.862741430386</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -27632,7 +27632,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>-45.25843442400424,170.862758633337</t>
+          <t>-45.258434426684374,170.86275864428035</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -27676,7 +27676,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>-45.25842735380104,170.86272976477312</t>
+          <t>-45.25842735112091,170.86272975382977</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -27698,7 +27698,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>-45.25837051854064,170.86249770030915</t>
+          <t>-45.258370510500164,170.86249766747918</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -27742,7 +27742,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>-45.25841527440391,170.86268044310054</t>
+          <t>-45.25841526368335,170.86268039932716</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -27786,7 +27786,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>-45.25839295145135,170.86258929600618</t>
+          <t>-45.25839294609104,170.86258927411947</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -27808,7 +27808,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>-45.25836818948042,170.8624881905571</t>
+          <t>-45.25836818143994,170.86248815772709</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -27826,7 +27826,7 @@
       <c r="B406" t="inlineStr"/>
       <c r="C406" t="inlineStr">
         <is>
-          <t>-45.25838493779142,170.862556575432</t>
+          <t>-45.2583849270708,170.86255653165867</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -27848,7 +27848,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>-45.25842114659626,170.86270441997482</t>
+          <t>-45.25842115999697,170.86270447469158</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -27870,7 +27870,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>-45.25840942900807,170.8626565756648</t>
+          <t>-45.25840942632793,170.86265656472145</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -27892,7 +27892,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>-45.25843111135497,170.8627451073524</t>
+          <t>-45.258431124755646,170.86274516206916</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -27914,7 +27914,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>-45.25841017140846,170.86265960697114</t>
+          <t>-45.25841016336802,170.8626595741411</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -27936,7 +27936,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>-45.258400343307414,170.86261947773485</t>
+          <t>-45.25840034598757,170.86261948867818</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -27958,7 +27958,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>-45.258392375218584,170.86258694318863</t>
+          <t>-45.258392385939196,170.862586986962</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -27998,7 +27998,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>-45.258382437206016,170.86254636530163</t>
+          <t>-45.25838245060681,170.86254642001828</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -28020,7 +28020,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>-45.25842005309847,170.8626999550887</t>
+          <t>-45.25842003969777,170.86269990037195</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -28042,7 +28042,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>-45.25841322409368,170.86267207144095</t>
+          <t>-45.25841322945397,170.86267209332763</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -28064,7 +28064,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>-45.258432676555145,170.8627514982705</t>
+          <t>-45.258432687275686,170.8627515420439</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -28086,7 +28086,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>-45.2584312775235,170.86274578584025</t>
+          <t>-45.25843127216322,170.86274576395357</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -28108,7 +28108,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>-45.25841194834481,170.86266686240862</t>
+          <t>-45.25841196174553,170.86266691712532</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -28148,7 +28148,7 @@
       <c r="B421" t="inlineStr"/>
       <c r="C421" t="inlineStr">
         <is>
-          <t>-45.25839048839097,170.86257923907954</t>
+          <t>-45.25839049911159,170.86257928285286</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -28170,7 +28170,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>-45.25840097314251,170.86262204941985</t>
+          <t>-45.258400965102055,170.86262201658985</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -28210,7 +28210,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>-45.25839686983288,170.86260529516662</t>
+          <t>-45.258396867152726,170.86260528422326</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -28254,7 +28254,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>-45.258403918625845,170.86263407615183</t>
+          <t>-45.25840391326555,170.86263405426516</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -28298,7 +28298,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>-45.258415003709395,170.86267933782258</t>
+          <t>-45.258414998349096,170.86267931593588</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -28320,7 +28320,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>-45.25843397642146,170.86275680579692</t>
+          <t>-45.25843398446187,170.86275683862698</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -28342,7 +28342,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>-45.258448301736266,170.8628152980378</t>
+          <t>-45.25844831245679,170.86281534181123</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -28364,7 +28364,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>-45.25841165084871,170.86266564769733</t>
+          <t>-45.258411637447985,170.8626655929806</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -28408,7 +28408,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>-45.258411707131756,170.86266587750757</t>
+          <t>-45.25841169641118,170.86266583373418</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -28430,7 +28430,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>-45.25843603476598,170.8627652102929</t>
+          <t>-45.25843604816665,170.86276526500967</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -28452,7 +28452,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>-45.25838373708171,170.86255167281837</t>
+          <t>-45.258383747802334,170.86255171659172</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -28474,7 +28474,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>-45.25842184075285,170.86270725430217</t>
+          <t>-45.258421838072714,170.8627072433588</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -28518,7 +28518,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>-45.25839643832859,170.86260353328908</t>
+          <t>-45.25839642492784,170.86260347857237</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -28540,7 +28540,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>-45.25843414527005,170.8627574952282</t>
+          <t>-45.25843413186938,170.86275744051144</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -28562,7 +28562,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>-45.25839643832859,170.86260353328908</t>
+          <t>-45.25839642492784,170.86260347857237</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -28584,7 +28584,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>-45.25838800924879,170.86256911649375</t>
+          <t>-45.25838802264956,170.86256917121042</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -28606,7 +28606,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>-45.258388537239156,170.86257127233088</t>
+          <t>-45.25838852383838,170.86257121761417</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -28628,7 +28628,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>-45.258399737593614,170.86261700453994</t>
+          <t>-45.258399726873016,170.8626169607666</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -28650,7 +28650,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>-45.25843532452999,170.862762310304</t>
+          <t>-45.2584353111293,170.8627622555872</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -28672,7 +28672,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>-45.258425005998845,170.86272017839798</t>
+          <t>-45.258424992598144,170.8627201236812</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -28694,7 +28694,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>-45.25840912615158,170.86265533906695</t>
+          <t>-45.25840913151187,170.86265536095365</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -28738,7 +28738,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>-45.25840220869118,170.8626270943</t>
+          <t>-45.258402203330874,170.86262707241332</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -28756,7 +28756,7 @@
       <c r="B449" t="inlineStr"/>
       <c r="C449" t="inlineStr">
         <is>
-          <t>-45.25843428463715,170.8627580642826</t>
+          <t>-45.25843427927688,170.8627580423959</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -28778,7 +28778,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>-45.258444144851886,170.8627983248886</t>
+          <t>-45.258444155572406,170.86279836866203</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -28800,7 +28800,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>-45.258435908799605,170.86276469595524</t>
+          <t>-45.258435900759196,170.86276466312518</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -28822,7 +28822,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>-45.25840784772179,170.86265011909202</t>
+          <t>-45.25840783432105,170.86265006437532</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -28844,7 +28844,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>-45.25838858548192,170.8625714693109</t>
+          <t>-45.25838858280177,170.86257145836757</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -28866,7 +28866,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>-45.25840311994168,170.86263081503606</t>
+          <t>-45.25840311726154,170.8626308040927</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -28888,7 +28888,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>-45.25839827155159,170.86261101853307</t>
+          <t>-45.258398282272196,170.8626110623064</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -28928,7 +28928,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>-45.258409739905005,170.8626578450927</t>
+          <t>-45.258409750625574,170.8626578888661</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -28950,7 +28950,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>-45.25838280706758,170.86254787548162</t>
+          <t>-45.25838280438743,170.86254786453827</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -28972,7 +28972,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>-45.2583946721089,170.862596321629</t>
+          <t>-45.25839468550965,170.86259637634572</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -29030,7 +29030,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>-45.258412465612764,170.86266897447422</t>
+          <t>-45.258412462932625,170.86266896353087</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -29052,7 +29052,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>-45.25840596357852,170.86264242592193</t>
+          <t>-45.25840597697925,170.86264248063864</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -29074,7 +29074,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>-45.2583402004944,170.86237390944504</t>
+          <t>-45.258340203174576,170.86237392038834</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -29096,7 +29096,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>-45.25836133898346,170.8624602194152</t>
+          <t>-45.25836134166364,170.86246023035852</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -29118,7 +29118,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>-45.25843430071796,170.86275812994273</t>
+          <t>-45.25843430875838,170.8627581627728</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -29140,7 +29140,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>-45.25841921153388,170.8626965188774</t>
+          <t>-45.25841921421402,170.86269652982074</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -29162,7 +29162,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>-45.25841443551889,170.8626770178332</t>
+          <t>-45.25841443819903,170.86267702877655</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -29184,7 +29184,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>-45.25842207124499,170.86270819543017</t>
+          <t>-45.25842207392513,170.86270820637353</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -29206,7 +29206,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>-45.25842671324778,170.86272714931224</t>
+          <t>-45.258426702527224,170.86272710553882</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -29228,7 +29228,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>-45.25841233964595,170.86266846013697</t>
+          <t>-45.25841234500624,170.86266848202368</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -29250,7 +29250,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>-45.25842654171887,170.8627264489378</t>
+          <t>-45.25842655511956,170.86272650365456</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -29268,7 +29268,7 @@
       <c r="B473" t="inlineStr"/>
       <c r="C473" t="inlineStr">
         <is>
-          <t>-45.258281716202966,170.86213511558952</t>
+          <t>-45.25828171084258,170.86213509370293</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -29290,7 +29290,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>-45.25837602626913,170.8625201888515</t>
+          <t>-45.25837602358898,170.86252017790818</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -29330,7 +29330,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>-45.258411280988675,170.86266413751574</t>
+          <t>-45.25841128366881,170.8626641484591</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -29352,7 +29352,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>-45.25841216007625,170.86266772693287</t>
+          <t>-45.25841216811667,170.8626677597629</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -29374,7 +29374,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>-45.25840629591677,170.86264378289644</t>
+          <t>-45.25840630127706,170.86264380478312</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -29396,7 +29396,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>-45.258406177990295,170.86264330138934</t>
+          <t>-45.258406183350594,170.86264332327602</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -29418,7 +29418,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>-45.25842048728144,170.86270172791112</t>
+          <t>-45.258420481921156,170.8627017060244</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -29440,7 +29440,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>-45.25839123883383,170.86258230321377</t>
+          <t>-45.25839123615368,170.86258229227042</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -29480,7 +29480,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>-45.258436423385646,170.86276679707933</t>
+          <t>-45.25843643142605,170.8627668299094</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -29502,7 +29502,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>-45.258410024000455,170.8626590050872</t>
+          <t>-45.25841001596001,170.86265897225715</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -29546,7 +29546,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>-45.25846918260542,170.8629005577833</t>
+          <t>-45.25846918528555,170.86290056872667</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -29590,7 +29590,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>-45.25841140427535,170.8626646409096</t>
+          <t>-45.258411401595204,170.86266462996628</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -29608,7 +29608,7 @@
       <c r="B489" t="inlineStr"/>
       <c r="C489" t="inlineStr">
         <is>
-          <t>-45.25844304599744,170.86279383811203</t>
+          <t>-45.258443035276905,170.8627937943386</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -29630,7 +29630,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>-45.25839864945277,170.86261256154395</t>
+          <t>-45.258398636052014,170.86261250682725</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -29652,7 +29652,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>-45.25841364755651,170.86267380048952</t>
+          <t>-45.25841364219621,170.86267377860287</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -29674,7 +29674,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>-45.25843963686743,170.86277991816235</t>
+          <t>-45.258439644907824,170.8627799509924</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -29696,7 +29696,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>-45.25839416556022,170.86259425333813</t>
+          <t>-45.25839415483962,170.86259420956478</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -29718,7 +29718,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>-45.25837906288838,170.8625325876459</t>
+          <t>-45.258379060208235,170.86253257670253</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -29740,7 +29740,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>-45.25840823366288,170.8626516949335</t>
+          <t>-45.25840824706361,170.8626517496502</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -29762,7 +29762,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>-45.258444482548576,170.8627997037517</t>
+          <t>-45.258444479868444,170.86279969280835</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -29784,7 +29784,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>-45.258414221107365,170.86267614236553</t>
+          <t>-45.25841423182794,170.8626761861389</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -29806,7 +29806,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>-45.258443230926616,170.86279459320366</t>
+          <t>-45.25844324164715,170.8627946369771</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -29828,7 +29828,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>-45.25841531996635,170.86268062913743</t>
+          <t>-45.258415322646506,170.86268064008078</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -29850,7 +29850,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>-45.258432320096915,170.86275004280452</t>
+          <t>-45.2584323334976,170.86275009752129</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -29872,7 +29872,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>-45.258431966318796,170.86274859828194</t>
+          <t>-45.25843197971948,170.8627486529987</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -29894,7 +29894,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>-45.258414588287096,170.86267764160394</t>
+          <t>-45.25841458560696,170.86267763066058</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -29916,7 +29916,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>-45.25842635946938,170.86272570478994</t>
+          <t>-45.258426348748834,170.86272566101653</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -29938,7 +29938,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>-45.25839732813865,170.8626071664776</t>
+          <t>-45.258397338859254,170.86260721025096</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -29960,7 +29960,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>-45.25840963537931,170.8626574183023</t>
+          <t>-45.258409632699156,170.86265740735897</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -29982,7 +29982,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>-45.25840266967674,170.86262897655467</t>
+          <t>-45.25840267503704,170.86262899844138</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -30026,7 +30026,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>-45.25841097545211,170.86266288997447</t>
+          <t>-45.25841098885284,170.86266294469118</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -30070,7 +30070,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>-45.25842167994438,170.86270659770122</t>
+          <t>-45.25842169066495,170.86270664147463</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -30092,7 +30092,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>-45.25837830440374,170.86252949068302</t>
+          <t>-45.258378293683116,170.86252944690966</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -30114,7 +30114,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>-45.25840128135965,170.86262330790402</t>
+          <t>-45.258401289400105,170.86262334073407</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -30136,7 +30136,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>-45.25839070280322,170.86258011454643</t>
+          <t>-45.25839070548337,170.86258012548976</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -30158,7 +30158,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>-45.258417040618376,170.86268765476598</t>
+          <t>-45.25841703257795,170.86268762193595</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -30180,7 +30180,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>-45.25841133191144,170.8626643454393</t>
+          <t>-45.25841134263202,170.86266438921268</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -30202,7 +30202,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>-45.25840749662259,170.86264868551407</t>
+          <t>-45.25840751002331,170.86264874023078</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -30224,7 +30224,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>-45.25845221472641,170.86283127534367</t>
+          <t>-45.25845220400589,170.86283123157023</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -30264,7 +30264,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>-45.258473382356804,170.86291770604177</t>
+          <t>-45.258473371636306,170.86291766226833</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -30286,7 +30286,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>-45.25840244990455,170.8626280792007</t>
+          <t>-45.25840243918396,170.86262803542732</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -30308,7 +30308,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>-45.258409718463824,170.86265775754597</t>
+          <t>-45.25840972114398,170.8626577684893</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -30330,7 +30330,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>-45.25844973560619,170.86282115273522</t>
+          <t>-45.258449727565804,170.86282111990513</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -30352,7 +30352,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>-45.25839304257653,170.86258966807964</t>
+          <t>-45.25839303453606,170.86258963524963</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -30374,7 +30374,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>-45.258404202721536,170.86263523614608</t>
+          <t>-45.258404208081835,170.86263525803275</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -30396,7 +30396,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>-45.258420176384995,170.8627004584827</t>
+          <t>-45.25842018710556,170.8627005022561</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -30418,7 +30418,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>-45.25841166960972,170.86266572430074</t>
+          <t>-45.258411666929575,170.8626657133574</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -30440,7 +30440,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>-45.258404307247304,170.8626356629364</t>
+          <t>-45.258404296526706,170.86263561916306</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -30484,7 +30484,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>-45.25839074568567,170.86258028963982</t>
+          <t>-45.25839073496507,170.86258024586647</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -30506,7 +30506,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>-45.25840613510794,170.86264312629586</t>
+          <t>-45.258406124387356,170.86264308252248</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -30528,7 +30528,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>-45.25840388110377,170.86263392294504</t>
+          <t>-45.25840388378391,170.8626339338884</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -30550,7 +30550,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>-45.25842930226185,170.86273772058965</t>
+          <t>-45.25842929690157,170.86273769870294</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -30572,7 +30572,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>-45.25847468489564,170.86292302451943</t>
+          <t>-45.25847469829625,170.86292307923628</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -30594,7 +30594,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>-45.25843680396489,170.8627683510357</t>
+          <t>-45.25843681468543,170.8627683948091</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -30616,7 +30616,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>-45.25837309685497,170.8625082277917</t>
+          <t>-45.25837310489545,170.86250826062167</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -30638,7 +30638,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>-45.25837141639449,170.86250136632427</t>
+          <t>-45.25837142443497,170.86250139915424</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -30682,7 +30682,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>-45.258504171522524,170.8630434235394</t>
+          <t>-45.25850417956287,170.86304345636955</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -30704,7 +30704,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>-45.25838967094418,170.86257590136196</t>
+          <t>-45.25838967362434,170.8625759123053</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -30726,7 +30726,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>-45.25838027431953,170.86253753403201</t>
+          <t>-45.25838026895922,170.86253751214534</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -30748,7 +30748,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>-45.25840125187801,170.86262318752728</t>
+          <t>-45.25840125991846,170.8626232203573</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -30770,7 +30770,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>-45.258393892184735,170.86259313711767</t>
+          <t>-45.25839388950459,170.86259312617432</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -30792,7 +30792,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>-45.25841491526465,170.86267897669214</t>
+          <t>-45.25841490990436,170.86267895480546</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -30832,7 +30832,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>-45.25840862496424,170.86265329266166</t>
+          <t>-45.25840863032454,170.86265331454834</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
@@ -30854,7 +30854,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>-45.258383530709715,170.86255083018165</t>
+          <t>-45.25838354143035,170.862550873955</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
@@ -30876,7 +30876,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>-45.25841028397456,170.8626600665916</t>
+          <t>-45.258410281294424,170.86266005564823</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
@@ -30898,7 +30898,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>-45.25839892550822,170.86261368870794</t>
+          <t>-45.258398930868516,170.86261371059462</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -30920,7 +30920,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>-45.258416895890655,170.86268706382526</t>
+          <t>-45.25841688517008,170.86268702005188</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
@@ -30942,7 +30942,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>-45.258399153320966,170.86261461889183</t>
+          <t>-45.25839916672171,170.8626146736085</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
@@ -30964,7 +30964,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>-45.2583672809055,170.86248448076907</t>
+          <t>-45.25836726750471,170.86248442605242</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
@@ -30986,7 +30986,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>-45.25842742080451,170.8627300383569</t>
+          <t>-45.25842741008397,170.86272999458347</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
@@ -31008,7 +31008,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>-45.25840260803332,170.86262872485784</t>
+          <t>-45.25840261607375,170.86262875768787</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
@@ -31030,7 +31030,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>-45.25841498494839,170.86267926121914</t>
+          <t>-45.258414998349096,170.86267931593588</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -31052,7 +31052,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>-45.25841416482433,170.86267591255526</t>
+          <t>-45.25841417286477,170.8626759453853</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -31074,7 +31074,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>-45.25851650001522,170.86309376310604</t>
+          <t>-45.258516502695315,170.86309377404942</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -31114,7 +31114,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>-45.25841127294824,170.8626641046857</t>
+          <t>-45.25841128366881,170.8626641484591</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
@@ -31136,7 +31136,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>-45.25842499527828,170.86272013462457</t>
+          <t>-45.258424992598144,170.8627201236812</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
@@ -31158,7 +31158,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>-45.25841843965289,170.86269336719326</t>
+          <t>-45.258418447693316,170.86269340002332</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
@@ -31180,7 +31180,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>-45.258402098805085,170.862626645623</t>
+          <t>-45.258402085404335,170.8626265909063</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -31202,7 +31202,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>-45.258410715478014,170.86266182847004</t>
+          <t>-45.25841072351844,170.86266186130007</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
@@ -31224,7 +31224,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>-45.258403693493406,170.86263315691113</t>
+          <t>-45.25840370689415,170.86263321162784</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -31246,7 +31246,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>-45.25842664088402,170.86272685384176</t>
+          <t>-45.25842664356415,170.86272686478512</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -31268,7 +31268,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>-45.25841187598088,170.8626665669383</t>
+          <t>-45.25841187330075,170.86266655599493</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
@@ -31290,7 +31290,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>-45.2584605016818,170.86286511222087</t>
+          <t>-45.25846048828117,170.86286505750402</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
@@ -31312,7 +31312,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>-45.25851667690211,170.86309448536954</t>
+          <t>-45.25851667958223,170.86309449631295</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
@@ -31334,7 +31334,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>-45.25841228336291,170.86266823032673</t>
+          <t>-45.25841228604307,170.8626682412701</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
@@ -31356,7 +31356,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>-45.25837344527575,170.86250965042453</t>
+          <t>-45.25837345867654,170.86250970514118</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
@@ -31374,7 +31374,7 @@
       <c r="B570" t="inlineStr"/>
       <c r="C570" t="inlineStr">
         <is>
-          <t>-45.25838572843721,170.86255980371567</t>
+          <t>-45.25838572307691,170.862559781829</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
@@ -31396,7 +31396,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>-45.25841323481426,170.8626721152143</t>
+          <t>-45.25841322945397,170.86267209332763</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
@@ -31418,7 +31418,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>-45.25841168569059,170.86266578996083</t>
+          <t>-45.25841169641118,170.86266583373418</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
@@ -31440,7 +31440,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>-45.258375822577065,170.86251935715836</t>
+          <t>-45.25837581721675,170.86251933527174</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
@@ -31462,7 +31462,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>-45.25842165314296,170.86270648826775</t>
+          <t>-45.2584216611834,170.8627065210978</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
@@ -31484,7 +31484,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>-45.258427611094376,170.86273081533483</t>
+          <t>-45.25842761645467,170.8627308372215</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -31502,7 +31502,7 @@
       <c r="B576" t="inlineStr"/>
       <c r="C576" t="inlineStr">
         <is>
-          <t>-45.25836990478377,170.86249519428696</t>
+          <t>-45.25836989138296,170.86249513957029</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -31524,7 +31524,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>-45.258448309776675,170.86281533086785</t>
+          <t>-45.25844831245679,170.86281534181123</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
@@ -31546,7 +31546,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>-45.258429572955805,170.8627388258682</t>
+          <t>-45.25842956223526,170.86273878209477</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
@@ -31590,7 +31590,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>-45.25845239965533,170.86283203043558</t>
+          <t>-45.258452410375845,170.86283207420902</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
@@ -31612,7 +31612,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>-45.258386594127245,170.86256333841277</t>
+          <t>-45.25838660752802,170.86256339312945</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
@@ -31634,7 +31634,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>-45.258426871375995,170.8627277949699</t>
+          <t>-45.25842687941642,170.8627278278</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
@@ -31656,7 +31656,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>-45.2584377098506,170.8627720498897</t>
+          <t>-45.25843769913005,170.86277200611627</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
@@ -31678,7 +31678,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>-45.2584305324452,170.86274274358826</t>
+          <t>-45.25843053512535,170.8627427545316</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
@@ -31700,7 +31700,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>-45.2584159873221,170.8626833540307</t>
+          <t>-45.25841600072281,170.86268340874744</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
@@ -31744,7 +31744,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>-45.25843504043557,170.86276115030844</t>
+          <t>-45.25843504579584,170.86276117219515</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
@@ -31766,7 +31766,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>-45.25840078285191,170.86262127244268</t>
+          <t>-45.258400788212214,170.86262129432936</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
@@ -31788,7 +31788,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>-45.258431167637845,170.86274533716278</t>
+          <t>-45.25843115423716,170.862745282446</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
@@ -31810,7 +31810,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>-45.258408375710644,170.8626522749307</t>
+          <t>-45.25840836499006,170.86265223115734</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
@@ -31832,7 +31832,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>-45.258401999639574,170.8626262407194</t>
+          <t>-45.25840199695942,170.86262622977605</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
@@ -31854,7 +31854,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>-45.25842619598088,170.86272503724553</t>
+          <t>-45.25842620134116,170.86272505913226</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
@@ -31876,7 +31876,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>-45.258401265278756,170.86262324224398</t>
+          <t>-45.25840125991846,170.8626232203573</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
@@ -31898,7 +31898,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>-45.258446693657504,170.86280873202233</t>
+          <t>-45.25844669097737,170.86280872107895</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
@@ -31920,7 +31920,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>-45.25842224009387,170.86270888486115</t>
+          <t>-45.25842225081445,170.86270892863456</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
@@ -31942,7 +31942,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>-45.258417981348515,170.86269149588085</t>
+          <t>-45.25841797598822,170.86269147399415</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
@@ -31964,7 +31964,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>-45.25839579509233,170.86260090688776</t>
+          <t>-45.25839580581294,170.86260095066115</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -31982,7 +31982,7 @@
       <c r="B598" t="inlineStr"/>
       <c r="C598" t="inlineStr">
         <is>
-          <t>-45.25846456475206,170.8628817023623</t>
+          <t>-45.25846455671168,170.86288166953221</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
@@ -32004,7 +32004,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>-45.258439433177216,170.8627790864673</t>
+          <t>-45.25843943853749,170.86277910835403</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
@@ -32026,7 +32026,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>-45.25834022729613,170.86237401887817</t>
+          <t>-45.25834023265648,170.86237404076482</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
@@ -32048,7 +32048,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>-45.258398469882714,170.86261182834016</t>
+          <t>-45.258398459162116,170.86261178456684</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
@@ -32070,7 +32070,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>-45.258357015876875,170.86244256783357</t>
+          <t>-45.25835700783638,170.8624425350036</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
@@ -32114,7 +32114,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>-45.25840733045348,170.86264800702682</t>
+          <t>-45.25840733313364,170.86264801797012</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
@@ -32158,7 +32158,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>-45.258395650364164,170.8626003159475</t>
+          <t>-45.25839565840464,170.8626003487775</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">

--- a/data/nzd0480/nzd0480.xlsx
+++ b/data/nzd0480/nzd0480.xlsx
@@ -18881,13 +18881,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0383</v>
+        <v>0.0494</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0407</v>
+        <v>0.0579</v>
       </c>
       <c r="I2" t="n">
         <v>-0.1691541940462794</v>
@@ -18962,10 +18962,10 @@
         <v>0.055</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0507</v>
+        <v>0.0539</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0608</v>
+        <v>0.0617</v>
       </c>
       <c r="I3" t="n">
         <v>-0.0733394711551371</v>

--- a/data/nzd0480/nzd0480.xlsx
+++ b/data/nzd0480/nzd0480.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D608"/>
+  <dimension ref="A1:D610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11381,6 +11381,42 @@
       <c r="D608" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:14:52+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>336.49</v>
+      </c>
+      <c r="C609" t="n">
+        <v>342.95</v>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:45+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>336.38</v>
+      </c>
+      <c r="C610" t="n">
+        <v>342.03</v>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -11395,7 +11431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B748"/>
+  <dimension ref="A1:B750"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18883,6 +18919,26 @@
       </c>
       <c r="B748" t="n">
         <v>-0.51</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B749" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B750" t="n">
+        <v>0.67</v>
       </c>
     </row>
   </sheetData>
@@ -19050,34 +19106,34 @@
         <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.047</v>
+        <v>0.0469</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0572</v>
+        <v>0.0568</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1462842433096189</v>
+        <v>-0.1480333105984765</v>
       </c>
       <c r="J2" t="n">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="K2" t="n">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09576827815635325</v>
+        <v>0.09817878536836433</v>
       </c>
       <c r="M2" t="n">
-        <v>2.560981087625787</v>
+        <v>2.5606022337218</v>
       </c>
       <c r="N2" t="n">
-        <v>9.365824050837039</v>
+        <v>9.357930753418625</v>
       </c>
       <c r="O2" t="n">
-        <v>3.060363385422888</v>
+        <v>3.05907351226129</v>
       </c>
       <c r="P2" t="n">
-        <v>342.9249583913958</v>
+        <v>342.9458082425533</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -19132,34 +19188,34 @@
         <v>0.055</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0518</v>
+        <v>0.0512</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0607</v>
+        <v>0.0603</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.09737318456416795</v>
+        <v>-0.09786956681899099</v>
       </c>
       <c r="J3" t="n">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="K3" t="n">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06444436869717585</v>
+        <v>0.0654142092690394</v>
       </c>
       <c r="M3" t="n">
-        <v>1.975215560242318</v>
+        <v>1.971349085765256</v>
       </c>
       <c r="N3" t="n">
-        <v>6.380522245269781</v>
+        <v>6.362100731283364</v>
       </c>
       <c r="O3" t="n">
-        <v>2.525969565388661</v>
+        <v>2.52232050526561</v>
       </c>
       <c r="P3" t="n">
-        <v>345.7961089738099</v>
+        <v>345.8020293414801</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -19201,7 +19257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D608"/>
+  <dimension ref="A1:D610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32585,6 +32641,50 @@
         </is>
       </c>
     </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:14:52+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>-45.25778998315458,170.86286054721086</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>-45.25841004544161,170.86265909263395</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:45+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>-45.25778965885843,170.8628592230798</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>-45.25840733313364,170.86264801797012</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
